--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.780545269618045</v>
+        <v>1.780545269617932</v>
       </c>
       <c r="C2">
         <v>0.4007450384460185</v>
       </c>
       <c r="D2">
-        <v>0.0179406749949873</v>
+        <v>0.01794067499486385</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.23561607629793</v>
+        <v>1.235616076297916</v>
       </c>
       <c r="G2">
-        <v>0.9309486448706963</v>
+        <v>0.9309486448706821</v>
       </c>
       <c r="H2">
         <v>0.6853573540177393</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4861845934435038</v>
+        <v>0.4861845934434967</v>
       </c>
       <c r="K2">
         <v>0.3242541716595113</v>
       </c>
       <c r="L2">
-        <v>0.7660936582393347</v>
+        <v>0.7660936582393134</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.541575172106349</v>
+        <v>1.541575172106263</v>
       </c>
       <c r="C3">
-        <v>0.3498888668343625</v>
+        <v>0.3498888668342488</v>
       </c>
       <c r="D3">
-        <v>0.01894570823751973</v>
+        <v>0.01894570823751707</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0.8478693815969933</v>
       </c>
       <c r="H3">
-        <v>0.6413643453465525</v>
+        <v>0.6413643453465312</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4214036129923429</v>
+        <v>0.4214036129923571</v>
       </c>
       <c r="K3">
-        <v>0.2816458472766996</v>
+        <v>0.2816458472767067</v>
       </c>
       <c r="L3">
         <v>0.6615583968460825</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.395958404196307</v>
+        <v>1.395958404196193</v>
       </c>
       <c r="C4">
-        <v>0.3188587321160128</v>
+        <v>0.3188587321161265</v>
       </c>
       <c r="D4">
-        <v>0.01957518223320953</v>
+        <v>0.01957518223320065</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>1.044771368281658</v>
       </c>
       <c r="G4">
-        <v>0.7989639841425173</v>
+        <v>0.7989639841425031</v>
       </c>
       <c r="H4">
-        <v>0.6159895285504362</v>
+        <v>0.6159895285504149</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.381914606098924</v>
+        <v>0.3819146060988956</v>
       </c>
       <c r="K4">
-        <v>0.2561076562689095</v>
+        <v>0.2561076562689166</v>
       </c>
       <c r="L4">
         <v>0.5983453411516919</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.33684657102566</v>
+        <v>1.336846571025632</v>
       </c>
       <c r="C5">
-        <v>0.306251309952529</v>
+        <v>0.3062513099526143</v>
       </c>
       <c r="D5">
-        <v>0.01983464437642191</v>
+        <v>0.01983464437630644</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1.016454563162824</v>
       </c>
       <c r="G5">
-        <v>0.7795169745640393</v>
+        <v>0.7795169745640322</v>
       </c>
       <c r="H5">
-        <v>0.6060277681369968</v>
+        <v>0.6060277681369683</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3658805084299175</v>
+        <v>0.3658805084298891</v>
       </c>
       <c r="K5">
-        <v>0.2458383178270935</v>
+        <v>0.2458383178270651</v>
       </c>
       <c r="L5">
         <v>0.572796137035958</v>
@@ -567,10 +567,10 @@
         <v>1.327043449870331</v>
       </c>
       <c r="C6">
-        <v>0.3041598060838453</v>
+        <v>0.3041598060838169</v>
       </c>
       <c r="D6">
-        <v>0.01987790149948232</v>
+        <v>0.01987790149929847</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>1.011787297210873</v>
       </c>
       <c r="G6">
-        <v>0.7763156318182212</v>
+        <v>0.776315631818207</v>
       </c>
       <c r="H6">
-        <v>0.6043955777817018</v>
+        <v>0.6043955777816805</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3632211691598854</v>
+        <v>0.3632211691598783</v>
       </c>
       <c r="K6">
-        <v>0.2441408877665836</v>
+        <v>0.2441408877665694</v>
       </c>
       <c r="L6">
         <v>0.5685654942249059</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.395160342518466</v>
+        <v>1.395160342518324</v>
       </c>
       <c r="C7">
-        <v>0.3186885664329679</v>
+        <v>0.3186885664331101</v>
       </c>
       <c r="D7">
-        <v>0.01957866969965405</v>
+        <v>0.0195786696996576</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.044387114149856</v>
+        <v>1.044387114149842</v>
       </c>
       <c r="G7">
-        <v>0.7986998218228152</v>
+        <v>0.7986998218228294</v>
       </c>
       <c r="H7">
         <v>0.6158536893424369</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3816981477132373</v>
+        <v>0.3816981477132586</v>
       </c>
       <c r="K7">
-        <v>0.2559686270594312</v>
+        <v>0.2559686270594526</v>
       </c>
       <c r="L7">
-        <v>0.5979999655839734</v>
+        <v>0.5979999655839805</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.697885356775458</v>
+        <v>1.697885356775629</v>
       </c>
       <c r="C8">
-        <v>0.3831619077379855</v>
+        <v>0.3831619077380424</v>
       </c>
       <c r="D8">
-        <v>0.01828453163068566</v>
+        <v>0.01828453163060484</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0.9018364097071583</v>
       </c>
       <c r="H8">
-        <v>0.6698281737197789</v>
+        <v>0.6698281737197647</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4637797283641021</v>
+        <v>0.4637797283640879</v>
       </c>
       <c r="K8">
-        <v>0.3094214220952054</v>
+        <v>0.3094214220952125</v>
       </c>
       <c r="L8">
-        <v>0.7298269508227762</v>
+        <v>0.7298269508227833</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.302914043727014</v>
+        <v>2.302914043726958</v>
       </c>
       <c r="C9">
         <v>0.5117267871973752</v>
       </c>
       <c r="D9">
-        <v>0.0158541198117943</v>
+        <v>0.01585411981190443</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>1.123120327943766</v>
       </c>
       <c r="H9">
-        <v>0.7902864000057193</v>
+        <v>0.7902864000057335</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6277212181186727</v>
+        <v>0.6277212181186584</v>
       </c>
       <c r="K9">
-        <v>0.4201410836403241</v>
+        <v>0.4201410836403383</v>
       </c>
       <c r="L9">
-        <v>0.9977346176972333</v>
+        <v>0.9977346176972048</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.758348694702988</v>
+        <v>2.758348694702761</v>
       </c>
       <c r="C10">
-        <v>0.6083839135106359</v>
+        <v>0.6083839135103233</v>
       </c>
       <c r="D10">
-        <v>0.01414974395370194</v>
+        <v>0.01414974395379609</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.762302439951597</v>
+        <v>1.762302439951611</v>
       </c>
       <c r="G10">
-        <v>1.300881279633998</v>
+        <v>1.300881279633984</v>
       </c>
       <c r="H10">
         <v>0.8901945212087554</v>
@@ -743,7 +743,7 @@
         <v>0.7510787780511663</v>
       </c>
       <c r="K10">
-        <v>0.5065636140818555</v>
+        <v>0.5065636140818839</v>
       </c>
       <c r="L10">
         <v>1.202906960215245</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.968915070421986</v>
+        <v>2.968915070422042</v>
       </c>
       <c r="C11">
         <v>0.6530618004827033</v>
       </c>
       <c r="D11">
-        <v>0.01339662177333167</v>
+        <v>0.01339662177344714</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.808105746740452</v>
+        <v>0.8081057467404591</v>
       </c>
       <c r="K11">
-        <v>0.5473606692455633</v>
+        <v>0.547360669245549</v>
       </c>
       <c r="L11">
-        <v>1.298721087552849</v>
+        <v>1.298721087552821</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>3.049232537480691</v>
       </c>
       <c r="C12">
-        <v>0.6701034688051948</v>
+        <v>0.6701034688049958</v>
       </c>
       <c r="D12">
-        <v>0.01311511661622511</v>
+        <v>0.01311511661612563</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.928501264570784</v>
+        <v>1.928501264570798</v>
       </c>
       <c r="G12">
         <v>1.418853240298219</v>
       </c>
       <c r="H12">
-        <v>0.9576469835649988</v>
+        <v>0.9576469835649846</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0.8298573557762339</v>
       </c>
       <c r="K12">
-        <v>0.5630589011875671</v>
+        <v>0.5630589011875387</v>
       </c>
       <c r="L12">
-        <v>1.335423105266401</v>
+        <v>1.335423105266386</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>3.031907306991002</v>
       </c>
       <c r="C13">
-        <v>0.6664273982670466</v>
+        <v>0.666427398266876</v>
       </c>
       <c r="D13">
-        <v>0.01317557098203714</v>
+        <v>0.01317557098201938</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8251653445679494</v>
+        <v>0.8251653445679636</v>
       </c>
       <c r="K13">
-        <v>0.5596662968693167</v>
+        <v>0.5596662968693238</v>
       </c>
       <c r="L13">
         <v>1.327498941159092</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.975510627006088</v>
+        <v>2.975510627006031</v>
       </c>
       <c r="C14">
         <v>0.6544612301862571</v>
       </c>
       <c r="D14">
-        <v>0.01337338514088771</v>
+        <v>0.01337338514076691</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.886006443611876</v>
+        <v>1.886006443611862</v>
       </c>
       <c r="G14">
-        <v>1.388642594225672</v>
+        <v>1.388642594225701</v>
       </c>
       <c r="H14">
         <v>0.9402965176632136</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8098919653614089</v>
+        <v>0.8098919653614445</v>
       </c>
       <c r="K14">
-        <v>0.5486469538286158</v>
+        <v>0.5486469538286016</v>
       </c>
       <c r="L14">
-        <v>1.30173179533719</v>
+        <v>1.301731795337204</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.9410445982748</v>
+        <v>2.941044598274573</v>
       </c>
       <c r="C15">
-        <v>0.6471483161337801</v>
+        <v>0.6471483161338938</v>
       </c>
       <c r="D15">
-        <v>0.01349504828031378</v>
+        <v>0.01349504828051273</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.866225395732428</v>
+        <v>1.8662253957324</v>
       </c>
       <c r="G15">
-        <v>1.374590452360522</v>
+        <v>1.374590452360536</v>
       </c>
       <c r="H15">
         <v>0.9322436571408304</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8005578059869904</v>
+        <v>0.8005578059870118</v>
       </c>
       <c r="K15">
-        <v>0.5419308972884238</v>
+        <v>0.5419308972884025</v>
       </c>
       <c r="L15">
         <v>1.286005267476682</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.744663591140352</v>
+        <v>2.744663591140466</v>
       </c>
       <c r="C16">
-        <v>0.6054801214816052</v>
+        <v>0.6054801214815484</v>
       </c>
       <c r="D16">
-        <v>0.01419944910456294</v>
+        <v>0.0141994491045665</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>1.754582057628781</v>
       </c>
       <c r="G16">
-        <v>1.295413490396953</v>
+        <v>1.295413490396939</v>
       </c>
       <c r="H16">
-        <v>0.8870886292191216</v>
+        <v>0.8870886292191287</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.747372395810892</v>
+        <v>0.7473723958108991</v>
       </c>
       <c r="K16">
-        <v>0.5039302501255278</v>
+        <v>0.5039302501255136</v>
       </c>
       <c r="L16">
-        <v>1.196700373805854</v>
+        <v>1.196700373805868</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>2.625120896052465</v>
       </c>
       <c r="C17">
-        <v>0.5801137785357184</v>
+        <v>0.5801137785360595</v>
       </c>
       <c r="D17">
-        <v>0.01463758560809936</v>
+        <v>0.01463758560809048</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.687531583718041</v>
+        <v>1.687531583718055</v>
       </c>
       <c r="G17">
         <v>1.24797530725138</v>
@@ -1009,10 +1009,10 @@
         <v>0.7149955929173046</v>
       </c>
       <c r="K17">
-        <v>0.4810221669819441</v>
+        <v>0.4810221669819228</v>
       </c>
       <c r="L17">
-        <v>1.142592201961492</v>
+        <v>1.142592201961506</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.556675690284465</v>
+        <v>2.556675690284521</v>
       </c>
       <c r="C18">
         <v>0.5655889625963653</v>
       </c>
       <c r="D18">
-        <v>0.01489164574391566</v>
+        <v>0.01489164574391388</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.649460523335463</v>
+        <v>1.649460523335449</v>
       </c>
       <c r="G18">
         <v>1.221080217465712</v>
       </c>
       <c r="H18">
-        <v>0.8450609439990302</v>
+        <v>0.8450609439990231</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6964573536032432</v>
+        <v>0.6964573536032574</v>
       </c>
       <c r="K18">
         <v>0.4679832276991434</v>
@@ -1061,31 +1061,31 @@
         <v>2.533552329656345</v>
       </c>
       <c r="C19">
-        <v>0.560681704190614</v>
+        <v>0.5606817041907846</v>
       </c>
       <c r="D19">
-        <v>0.0149780056820088</v>
+        <v>0.01497800568210828</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.636652146006554</v>
+        <v>1.636652146006568</v>
       </c>
       <c r="G19">
-        <v>1.2120385676794</v>
+        <v>1.212038567679414</v>
       </c>
       <c r="H19">
-        <v>0.8399748754694016</v>
+        <v>0.8399748754693945</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.690194321871779</v>
+        <v>0.6901943218717932</v>
       </c>
       <c r="K19">
-        <v>0.4635910026309489</v>
+        <v>0.463591002630956</v>
       </c>
       <c r="L19">
         <v>1.101277879573097</v>
@@ -1099,10 +1099,10 @@
         <v>2.637813424582987</v>
       </c>
       <c r="C20">
-        <v>0.5828071711833616</v>
+        <v>0.5828071711832195</v>
       </c>
       <c r="D20">
-        <v>0.01459072921049476</v>
+        <v>0.01459072921056581</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7184332838697216</v>
+        <v>0.7184332838697358</v>
       </c>
       <c r="K20">
-        <v>0.483446326771606</v>
+        <v>0.4834463267716131</v>
       </c>
       <c r="L20">
         <v>1.148327949631074</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.99205914332282</v>
+        <v>2.992059143322876</v>
       </c>
       <c r="C21">
-        <v>0.6579724599441192</v>
+        <v>0.6579724599442329</v>
       </c>
       <c r="D21">
-        <v>0.01331517789123993</v>
+        <v>0.01331517789112802</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.895523627904169</v>
+        <v>1.89552362790414</v>
       </c>
       <c r="G21">
         <v>1.395405891587203</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8143736532562045</v>
+        <v>0.8143736532562258</v>
       </c>
       <c r="K21">
-        <v>0.5518765270218751</v>
+        <v>0.5518765270218893</v>
       </c>
       <c r="L21">
-        <v>1.309288313962</v>
+        <v>1.309288313962014</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.227014662342242</v>
+        <v>3.227014662342356</v>
       </c>
       <c r="C22">
-        <v>0.7078267529734035</v>
+        <v>0.707826752973574</v>
       </c>
       <c r="D22">
-        <v>0.01250331657421277</v>
+        <v>0.01250331657420922</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.031990536048539</v>
+        <v>2.031990536048511</v>
       </c>
       <c r="G22">
         <v>1.492553189608927</v>
@@ -1202,7 +1202,7 @@
         <v>0.5980727180528049</v>
       </c>
       <c r="L22">
-        <v>1.416963966180703</v>
+        <v>1.416963966180717</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,10 +1213,10 @@
         <v>3.101266303019145</v>
       </c>
       <c r="C23">
-        <v>0.6811441171916783</v>
+        <v>0.6811441171916499</v>
       </c>
       <c r="D23">
-        <v>0.01293444021756862</v>
+        <v>0.01293444021746915</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>1.440300989406211</v>
       </c>
       <c r="H23">
-        <v>0.9699951658532342</v>
+        <v>0.9699951658532484</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8439490808258725</v>
+        <v>0.8439490808258654</v>
       </c>
       <c r="K23">
-        <v>0.5732690225466328</v>
+        <v>0.573269022546647</v>
       </c>
       <c r="L23">
-        <v>1.359245879928693</v>
+        <v>1.359245879928679</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.632074262610445</v>
+        <v>2.632074262610502</v>
       </c>
       <c r="C24">
-        <v>0.5815893073180405</v>
+        <v>0.5815893073175857</v>
       </c>
       <c r="D24">
-        <v>0.01461190626594089</v>
+        <v>0.01461190626593201</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.691412360083618</v>
+        <v>1.691412360083646</v>
       </c>
       <c r="G24">
-        <v>1.25071852250133</v>
+        <v>1.250718522501344</v>
       </c>
       <c r="H24">
         <v>0.8617734282246801</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7168788701699214</v>
+        <v>0.7168788701699143</v>
       </c>
       <c r="K24">
-        <v>0.4823499580640984</v>
+        <v>0.4823499580640771</v>
       </c>
       <c r="L24">
-        <v>1.145734152444959</v>
+        <v>1.145734152444952</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.137632363140767</v>
+        <v>2.13763236314071</v>
       </c>
       <c r="C25">
-        <v>0.4766308969774968</v>
+        <v>0.4766308969774684</v>
       </c>
       <c r="D25">
-        <v>0.01649867775079894</v>
+        <v>0.01649867775061331</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.421728151805453</v>
+        <v>1.421728151805425</v>
       </c>
       <c r="G25">
         <v>1.06087154251945</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5829455437234188</v>
+        <v>0.5829455437234472</v>
       </c>
       <c r="K25">
-        <v>0.3894138322220826</v>
+        <v>0.389413832222111</v>
       </c>
       <c r="L25">
-        <v>0.9239995076878884</v>
+        <v>0.9239995076878742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.780545269617932</v>
+        <v>1.780545269618045</v>
       </c>
       <c r="C2">
         <v>0.4007450384460185</v>
       </c>
       <c r="D2">
-        <v>0.01794067499486385</v>
+        <v>0.0179406749949873</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.235616076297916</v>
+        <v>1.23561607629793</v>
       </c>
       <c r="G2">
-        <v>0.9309486448706821</v>
+        <v>0.9309486448706963</v>
       </c>
       <c r="H2">
         <v>0.6853573540177393</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4861845934434967</v>
+        <v>0.4861845934435038</v>
       </c>
       <c r="K2">
         <v>0.3242541716595113</v>
       </c>
       <c r="L2">
-        <v>0.7660936582393134</v>
+        <v>0.7660936582393347</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.541575172106263</v>
+        <v>1.541575172106349</v>
       </c>
       <c r="C3">
-        <v>0.3498888668342488</v>
+        <v>0.3498888668343625</v>
       </c>
       <c r="D3">
-        <v>0.01894570823751707</v>
+        <v>0.01894570823751973</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0.8478693815969933</v>
       </c>
       <c r="H3">
-        <v>0.6413643453465312</v>
+        <v>0.6413643453465525</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4214036129923571</v>
+        <v>0.4214036129923429</v>
       </c>
       <c r="K3">
-        <v>0.2816458472767067</v>
+        <v>0.2816458472766996</v>
       </c>
       <c r="L3">
         <v>0.6615583968460825</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.395958404196193</v>
+        <v>1.395958404196307</v>
       </c>
       <c r="C4">
-        <v>0.3188587321161265</v>
+        <v>0.3188587321160128</v>
       </c>
       <c r="D4">
-        <v>0.01957518223320065</v>
+        <v>0.01957518223320953</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>1.044771368281658</v>
       </c>
       <c r="G4">
-        <v>0.7989639841425031</v>
+        <v>0.7989639841425173</v>
       </c>
       <c r="H4">
-        <v>0.6159895285504149</v>
+        <v>0.6159895285504362</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3819146060988956</v>
+        <v>0.381914606098924</v>
       </c>
       <c r="K4">
-        <v>0.2561076562689166</v>
+        <v>0.2561076562689095</v>
       </c>
       <c r="L4">
         <v>0.5983453411516919</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.336846571025632</v>
+        <v>1.33684657102566</v>
       </c>
       <c r="C5">
-        <v>0.3062513099526143</v>
+        <v>0.306251309952529</v>
       </c>
       <c r="D5">
-        <v>0.01983464437630644</v>
+        <v>0.01983464437642191</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>1.016454563162824</v>
       </c>
       <c r="G5">
-        <v>0.7795169745640322</v>
+        <v>0.7795169745640393</v>
       </c>
       <c r="H5">
-        <v>0.6060277681369683</v>
+        <v>0.6060277681369968</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3658805084298891</v>
+        <v>0.3658805084299175</v>
       </c>
       <c r="K5">
-        <v>0.2458383178270651</v>
+        <v>0.2458383178270935</v>
       </c>
       <c r="L5">
         <v>0.572796137035958</v>
@@ -567,10 +567,10 @@
         <v>1.327043449870331</v>
       </c>
       <c r="C6">
-        <v>0.3041598060838169</v>
+        <v>0.3041598060838453</v>
       </c>
       <c r="D6">
-        <v>0.01987790149929847</v>
+        <v>0.01987790149948232</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,19 +579,19 @@
         <v>1.011787297210873</v>
       </c>
       <c r="G6">
-        <v>0.776315631818207</v>
+        <v>0.7763156318182212</v>
       </c>
       <c r="H6">
-        <v>0.6043955777816805</v>
+        <v>0.6043955777817018</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3632211691598783</v>
+        <v>0.3632211691598854</v>
       </c>
       <c r="K6">
-        <v>0.2441408877665694</v>
+        <v>0.2441408877665836</v>
       </c>
       <c r="L6">
         <v>0.5685654942249059</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.395160342518324</v>
+        <v>1.395160342518466</v>
       </c>
       <c r="C7">
-        <v>0.3186885664331101</v>
+        <v>0.3186885664329679</v>
       </c>
       <c r="D7">
-        <v>0.0195786696996576</v>
+        <v>0.01957866969965405</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.044387114149842</v>
+        <v>1.044387114149856</v>
       </c>
       <c r="G7">
-        <v>0.7986998218228294</v>
+        <v>0.7986998218228152</v>
       </c>
       <c r="H7">
         <v>0.6158536893424369</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3816981477132586</v>
+        <v>0.3816981477132373</v>
       </c>
       <c r="K7">
-        <v>0.2559686270594526</v>
+        <v>0.2559686270594312</v>
       </c>
       <c r="L7">
-        <v>0.5979999655839805</v>
+        <v>0.5979999655839734</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.697885356775629</v>
+        <v>1.697885356775458</v>
       </c>
       <c r="C8">
-        <v>0.3831619077380424</v>
+        <v>0.3831619077379855</v>
       </c>
       <c r="D8">
-        <v>0.01828453163060484</v>
+        <v>0.01828453163068566</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0.9018364097071583</v>
       </c>
       <c r="H8">
-        <v>0.6698281737197647</v>
+        <v>0.6698281737197789</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4637797283640879</v>
+        <v>0.4637797283641021</v>
       </c>
       <c r="K8">
-        <v>0.3094214220952125</v>
+        <v>0.3094214220952054</v>
       </c>
       <c r="L8">
-        <v>0.7298269508227833</v>
+        <v>0.7298269508227762</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.302914043726958</v>
+        <v>2.302914043727014</v>
       </c>
       <c r="C9">
         <v>0.5117267871973752</v>
       </c>
       <c r="D9">
-        <v>0.01585411981190443</v>
+        <v>0.0158541198117943</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -696,19 +696,19 @@
         <v>1.123120327943766</v>
       </c>
       <c r="H9">
-        <v>0.7902864000057335</v>
+        <v>0.7902864000057193</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6277212181186584</v>
+        <v>0.6277212181186727</v>
       </c>
       <c r="K9">
-        <v>0.4201410836403383</v>
+        <v>0.4201410836403241</v>
       </c>
       <c r="L9">
-        <v>0.9977346176972048</v>
+        <v>0.9977346176972333</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.758348694702761</v>
+        <v>2.758348694702988</v>
       </c>
       <c r="C10">
-        <v>0.6083839135103233</v>
+        <v>0.6083839135106359</v>
       </c>
       <c r="D10">
-        <v>0.01414974395379609</v>
+        <v>0.01414974395370194</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.762302439951611</v>
+        <v>1.762302439951597</v>
       </c>
       <c r="G10">
-        <v>1.300881279633984</v>
+        <v>1.300881279633998</v>
       </c>
       <c r="H10">
         <v>0.8901945212087554</v>
@@ -743,7 +743,7 @@
         <v>0.7510787780511663</v>
       </c>
       <c r="K10">
-        <v>0.5065636140818839</v>
+        <v>0.5065636140818555</v>
       </c>
       <c r="L10">
         <v>1.202906960215245</v>
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.968915070422042</v>
+        <v>2.968915070421986</v>
       </c>
       <c r="C11">
         <v>0.6530618004827033</v>
       </c>
       <c r="D11">
-        <v>0.01339662177344714</v>
+        <v>0.01339662177333167</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8081057467404591</v>
+        <v>0.808105746740452</v>
       </c>
       <c r="K11">
-        <v>0.547360669245549</v>
+        <v>0.5473606692455633</v>
       </c>
       <c r="L11">
-        <v>1.298721087552821</v>
+        <v>1.298721087552849</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>3.049232537480691</v>
       </c>
       <c r="C12">
-        <v>0.6701034688049958</v>
+        <v>0.6701034688051948</v>
       </c>
       <c r="D12">
-        <v>0.01311511661612563</v>
+        <v>0.01311511661622511</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.928501264570798</v>
+        <v>1.928501264570784</v>
       </c>
       <c r="G12">
         <v>1.418853240298219</v>
       </c>
       <c r="H12">
-        <v>0.9576469835649846</v>
+        <v>0.9576469835649988</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0.8298573557762339</v>
       </c>
       <c r="K12">
-        <v>0.5630589011875387</v>
+        <v>0.5630589011875671</v>
       </c>
       <c r="L12">
-        <v>1.335423105266386</v>
+        <v>1.335423105266401</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>3.031907306991002</v>
       </c>
       <c r="C13">
-        <v>0.666427398266876</v>
+        <v>0.6664273982670466</v>
       </c>
       <c r="D13">
-        <v>0.01317557098201938</v>
+        <v>0.01317557098203714</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8251653445679636</v>
+        <v>0.8251653445679494</v>
       </c>
       <c r="K13">
-        <v>0.5596662968693238</v>
+        <v>0.5596662968693167</v>
       </c>
       <c r="L13">
         <v>1.327498941159092</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.975510627006031</v>
+        <v>2.975510627006088</v>
       </c>
       <c r="C14">
         <v>0.6544612301862571</v>
       </c>
       <c r="D14">
-        <v>0.01337338514076691</v>
+        <v>0.01337338514088771</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.886006443611862</v>
+        <v>1.886006443611876</v>
       </c>
       <c r="G14">
-        <v>1.388642594225701</v>
+        <v>1.388642594225672</v>
       </c>
       <c r="H14">
         <v>0.9402965176632136</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8098919653614445</v>
+        <v>0.8098919653614089</v>
       </c>
       <c r="K14">
-        <v>0.5486469538286016</v>
+        <v>0.5486469538286158</v>
       </c>
       <c r="L14">
-        <v>1.301731795337204</v>
+        <v>1.30173179533719</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.941044598274573</v>
+        <v>2.9410445982748</v>
       </c>
       <c r="C15">
-        <v>0.6471483161338938</v>
+        <v>0.6471483161337801</v>
       </c>
       <c r="D15">
-        <v>0.01349504828051273</v>
+        <v>0.01349504828031378</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.8662253957324</v>
+        <v>1.866225395732428</v>
       </c>
       <c r="G15">
-        <v>1.374590452360536</v>
+        <v>1.374590452360522</v>
       </c>
       <c r="H15">
         <v>0.9322436571408304</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8005578059870118</v>
+        <v>0.8005578059869904</v>
       </c>
       <c r="K15">
-        <v>0.5419308972884025</v>
+        <v>0.5419308972884238</v>
       </c>
       <c r="L15">
         <v>1.286005267476682</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.744663591140466</v>
+        <v>2.744663591140352</v>
       </c>
       <c r="C16">
-        <v>0.6054801214815484</v>
+        <v>0.6054801214816052</v>
       </c>
       <c r="D16">
-        <v>0.0141994491045665</v>
+        <v>0.01419944910456294</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>1.754582057628781</v>
       </c>
       <c r="G16">
-        <v>1.295413490396939</v>
+        <v>1.295413490396953</v>
       </c>
       <c r="H16">
-        <v>0.8870886292191287</v>
+        <v>0.8870886292191216</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7473723958108991</v>
+        <v>0.747372395810892</v>
       </c>
       <c r="K16">
-        <v>0.5039302501255136</v>
+        <v>0.5039302501255278</v>
       </c>
       <c r="L16">
-        <v>1.196700373805868</v>
+        <v>1.196700373805854</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,16 +985,16 @@
         <v>2.625120896052465</v>
       </c>
       <c r="C17">
-        <v>0.5801137785360595</v>
+        <v>0.5801137785357184</v>
       </c>
       <c r="D17">
-        <v>0.01463758560809048</v>
+        <v>0.01463758560809936</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.687531583718055</v>
+        <v>1.687531583718041</v>
       </c>
       <c r="G17">
         <v>1.24797530725138</v>
@@ -1009,10 +1009,10 @@
         <v>0.7149955929173046</v>
       </c>
       <c r="K17">
-        <v>0.4810221669819228</v>
+        <v>0.4810221669819441</v>
       </c>
       <c r="L17">
-        <v>1.142592201961506</v>
+        <v>1.142592201961492</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.556675690284521</v>
+        <v>2.556675690284465</v>
       </c>
       <c r="C18">
         <v>0.5655889625963653</v>
       </c>
       <c r="D18">
-        <v>0.01489164574391388</v>
+        <v>0.01489164574391566</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.649460523335449</v>
+        <v>1.649460523335463</v>
       </c>
       <c r="G18">
         <v>1.221080217465712</v>
       </c>
       <c r="H18">
-        <v>0.8450609439990231</v>
+        <v>0.8450609439990302</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6964573536032574</v>
+        <v>0.6964573536032432</v>
       </c>
       <c r="K18">
         <v>0.4679832276991434</v>
@@ -1061,31 +1061,31 @@
         <v>2.533552329656345</v>
       </c>
       <c r="C19">
-        <v>0.5606817041907846</v>
+        <v>0.560681704190614</v>
       </c>
       <c r="D19">
-        <v>0.01497800568210828</v>
+        <v>0.0149780056820088</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.636652146006568</v>
+        <v>1.636652146006554</v>
       </c>
       <c r="G19">
-        <v>1.212038567679414</v>
+        <v>1.2120385676794</v>
       </c>
       <c r="H19">
-        <v>0.8399748754693945</v>
+        <v>0.8399748754694016</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6901943218717932</v>
+        <v>0.690194321871779</v>
       </c>
       <c r="K19">
-        <v>0.463591002630956</v>
+        <v>0.4635910026309489</v>
       </c>
       <c r="L19">
         <v>1.101277879573097</v>
@@ -1099,10 +1099,10 @@
         <v>2.637813424582987</v>
       </c>
       <c r="C20">
-        <v>0.5828071711832195</v>
+        <v>0.5828071711833616</v>
       </c>
       <c r="D20">
-        <v>0.01459072921056581</v>
+        <v>0.01459072921049476</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7184332838697358</v>
+        <v>0.7184332838697216</v>
       </c>
       <c r="K20">
-        <v>0.4834463267716131</v>
+        <v>0.483446326771606</v>
       </c>
       <c r="L20">
         <v>1.148327949631074</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.992059143322876</v>
+        <v>2.99205914332282</v>
       </c>
       <c r="C21">
-        <v>0.6579724599442329</v>
+        <v>0.6579724599441192</v>
       </c>
       <c r="D21">
-        <v>0.01331517789112802</v>
+        <v>0.01331517789123993</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.89552362790414</v>
+        <v>1.895523627904169</v>
       </c>
       <c r="G21">
         <v>1.395405891587203</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8143736532562258</v>
+        <v>0.8143736532562045</v>
       </c>
       <c r="K21">
-        <v>0.5518765270218893</v>
+        <v>0.5518765270218751</v>
       </c>
       <c r="L21">
-        <v>1.309288313962014</v>
+        <v>1.309288313962</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.227014662342356</v>
+        <v>3.227014662342242</v>
       </c>
       <c r="C22">
-        <v>0.707826752973574</v>
+        <v>0.7078267529734035</v>
       </c>
       <c r="D22">
-        <v>0.01250331657420922</v>
+        <v>0.01250331657421277</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.031990536048511</v>
+        <v>2.031990536048539</v>
       </c>
       <c r="G22">
         <v>1.492553189608927</v>
@@ -1202,7 +1202,7 @@
         <v>0.5980727180528049</v>
       </c>
       <c r="L22">
-        <v>1.416963966180717</v>
+        <v>1.416963966180703</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,10 +1213,10 @@
         <v>3.101266303019145</v>
       </c>
       <c r="C23">
-        <v>0.6811441171916499</v>
+        <v>0.6811441171916783</v>
       </c>
       <c r="D23">
-        <v>0.01293444021746915</v>
+        <v>0.01293444021756862</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>1.440300989406211</v>
       </c>
       <c r="H23">
-        <v>0.9699951658532484</v>
+        <v>0.9699951658532342</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8439490808258654</v>
+        <v>0.8439490808258725</v>
       </c>
       <c r="K23">
-        <v>0.573269022546647</v>
+        <v>0.5732690225466328</v>
       </c>
       <c r="L23">
-        <v>1.359245879928679</v>
+        <v>1.359245879928693</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.632074262610502</v>
+        <v>2.632074262610445</v>
       </c>
       <c r="C24">
-        <v>0.5815893073175857</v>
+        <v>0.5815893073180405</v>
       </c>
       <c r="D24">
-        <v>0.01461190626593201</v>
+        <v>0.01461190626594089</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.691412360083646</v>
+        <v>1.691412360083618</v>
       </c>
       <c r="G24">
-        <v>1.250718522501344</v>
+        <v>1.25071852250133</v>
       </c>
       <c r="H24">
         <v>0.8617734282246801</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7168788701699143</v>
+        <v>0.7168788701699214</v>
       </c>
       <c r="K24">
-        <v>0.4823499580640771</v>
+        <v>0.4823499580640984</v>
       </c>
       <c r="L24">
-        <v>1.145734152444952</v>
+        <v>1.145734152444959</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.13763236314071</v>
+        <v>2.137632363140767</v>
       </c>
       <c r="C25">
-        <v>0.4766308969774684</v>
+        <v>0.4766308969774968</v>
       </c>
       <c r="D25">
-        <v>0.01649867775061331</v>
+        <v>0.01649867775079894</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.421728151805425</v>
+        <v>1.421728151805453</v>
       </c>
       <c r="G25">
         <v>1.06087154251945</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5829455437234472</v>
+        <v>0.5829455437234188</v>
       </c>
       <c r="K25">
-        <v>0.389413832222111</v>
+        <v>0.3894138322220826</v>
       </c>
       <c r="L25">
-        <v>0.9239995076878742</v>
+        <v>0.9239995076878884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.780545269618045</v>
+        <v>1.780553981932201</v>
       </c>
       <c r="C2">
-        <v>0.4007450384460185</v>
+        <v>0.4005318422519792</v>
       </c>
       <c r="D2">
-        <v>0.0179406749949873</v>
+        <v>0.01794764248847702</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.23561607629793</v>
+        <v>1.233908323611885</v>
       </c>
       <c r="G2">
-        <v>0.9309486448706963</v>
+        <v>0.2906056019196654</v>
       </c>
       <c r="H2">
-        <v>0.6853573540177393</v>
+        <v>0.6428405311594219</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6842615157756811</v>
       </c>
       <c r="J2">
-        <v>0.4861845934435038</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3242541716595113</v>
+        <v>0.4861163692260817</v>
       </c>
       <c r="L2">
-        <v>0.7660936582393347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3242490242915324</v>
+      </c>
+      <c r="M2">
+        <v>0.7660933987934797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.541575172106349</v>
+        <v>1.541600598231383</v>
       </c>
       <c r="C3">
-        <v>0.3498888668343625</v>
+        <v>0.3497132356828274</v>
       </c>
       <c r="D3">
-        <v>0.01894570823751973</v>
+        <v>0.0189483131371686</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.11573834805391</v>
+        <v>1.114213932646706</v>
       </c>
       <c r="G3">
-        <v>0.8478693815969933</v>
+        <v>0.2606111346573456</v>
       </c>
       <c r="H3">
-        <v>0.6413643453465525</v>
+        <v>0.5900053058679902</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6403786744650262</v>
       </c>
       <c r="J3">
-        <v>0.4214036129923429</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2816458472766996</v>
+        <v>0.4213502864144658</v>
       </c>
       <c r="L3">
-        <v>0.6615583968460825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2816423738254841</v>
+      </c>
+      <c r="M3">
+        <v>0.6615615386675842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.395958404196307</v>
+        <v>1.395992061350569</v>
       </c>
       <c r="C4">
-        <v>0.3188587321160128</v>
+        <v>0.3187055702612724</v>
       </c>
       <c r="D4">
-        <v>0.01957518223320953</v>
+        <v>0.01957501010785023</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.044771368281658</v>
+        <v>1.043356988919413</v>
       </c>
       <c r="G4">
-        <v>0.7989639841425173</v>
+        <v>0.2428634366221374</v>
       </c>
       <c r="H4">
-        <v>0.6159895285504362</v>
+        <v>0.5589975105818468</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6150701469336539</v>
       </c>
       <c r="J4">
-        <v>0.381914606098924</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2561076562689095</v>
+        <v>0.3818698173446862</v>
       </c>
       <c r="L4">
-        <v>0.5983453411516919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2561051715733811</v>
+      </c>
+      <c r="M4">
+        <v>0.5983499294590047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.33684657102566</v>
+        <v>1.336883132775228</v>
       </c>
       <c r="C5">
-        <v>0.306251309952529</v>
+        <v>0.3061071793295014</v>
       </c>
       <c r="D5">
-        <v>0.01983464437642191</v>
+        <v>0.01983331696744184</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.016454563162824</v>
+        <v>1.0150844757231</v>
       </c>
       <c r="G5">
-        <v>0.7795169745640393</v>
+        <v>0.2357832377439522</v>
       </c>
       <c r="H5">
-        <v>0.6060277681369968</v>
+        <v>0.5466910646085239</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6051351076273761</v>
       </c>
       <c r="J5">
-        <v>0.3658805084299175</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2458383178270935</v>
+        <v>0.3658390657171537</v>
       </c>
       <c r="L5">
-        <v>0.572796137035958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.2458362310832811</v>
+      </c>
+      <c r="M5">
+        <v>0.5728011750092108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.327043449870331</v>
+        <v>1.327080468451726</v>
       </c>
       <c r="C6">
-        <v>0.3041598060838453</v>
+        <v>0.3040171682077357</v>
       </c>
       <c r="D6">
-        <v>0.01987790149948232</v>
+        <v>0.01987638086066923</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.011787297210873</v>
+        <v>1.010424533706271</v>
       </c>
       <c r="G6">
-        <v>0.7763156318182212</v>
+        <v>0.2346163158055461</v>
       </c>
       <c r="H6">
-        <v>0.6043955777817018</v>
+        <v>0.5446666268857925</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6035073379608562</v>
       </c>
       <c r="J6">
-        <v>0.3632211691598854</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2441408877665836</v>
+        <v>0.3631802745620334</v>
       </c>
       <c r="L6">
-        <v>0.5685654942249059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2441388669281821</v>
+      </c>
+      <c r="M6">
+        <v>0.5685705990084102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.395160342518466</v>
+        <v>1.395194040588848</v>
       </c>
       <c r="C7">
-        <v>0.3186885664329679</v>
+        <v>0.3185355268523722</v>
       </c>
       <c r="D7">
-        <v>0.01957866969965405</v>
+        <v>0.01957848208808244</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.044387114149856</v>
+        <v>1.042973334234446</v>
       </c>
       <c r="G7">
-        <v>0.7986998218228152</v>
+        <v>0.2427673550400087</v>
       </c>
       <c r="H7">
-        <v>0.6158536893424369</v>
+        <v>0.5588302467232609</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6149346692189752</v>
       </c>
       <c r="J7">
-        <v>0.3816981477132373</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2559686270594312</v>
+        <v>0.381653404599021</v>
       </c>
       <c r="L7">
-        <v>0.5979999655839734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2559661477451698</v>
+      </c>
+      <c r="M7">
+        <v>0.598004560494843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.697885356775458</v>
+        <v>1.697900292284032</v>
       </c>
       <c r="C8">
-        <v>0.3831619077379855</v>
+        <v>0.3829618031564621</v>
       </c>
       <c r="D8">
-        <v>0.01828453163068566</v>
+        <v>0.01829001601962332</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.193696703433503</v>
+        <v>1.192052747279362</v>
       </c>
       <c r="G8">
-        <v>0.9018364097071583</v>
+        <v>0.2801145818344821</v>
       </c>
       <c r="H8">
-        <v>0.6698281737197789</v>
+        <v>0.6243061327792248</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6687706326480267</v>
       </c>
       <c r="J8">
-        <v>0.4637797283641021</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3094214220952054</v>
+        <v>0.4637167799901292</v>
       </c>
       <c r="L8">
-        <v>0.7298269508227762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3094168631804521</v>
+      </c>
+      <c r="M8">
+        <v>0.7298280111731614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.302914043727014</v>
+        <v>2.302872972652324</v>
       </c>
       <c r="C9">
-        <v>0.5117267871973752</v>
+        <v>0.5114284214809572</v>
       </c>
       <c r="D9">
-        <v>0.0158541198117943</v>
+        <v>0.01586989100174918</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.510418883361794</v>
+        <v>1.508298959742078</v>
       </c>
       <c r="G9">
-        <v>1.123120327943766</v>
+        <v>0.3594553706557377</v>
       </c>
       <c r="H9">
-        <v>0.7902864000057193</v>
+        <v>0.7656022811611223</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.7889440326448565</v>
       </c>
       <c r="J9">
-        <v>0.6277212181186727</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4201410836403241</v>
+        <v>0.6276167218631841</v>
       </c>
       <c r="L9">
-        <v>0.9977346176972333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.4201318664265656</v>
+      </c>
+      <c r="M9">
+        <v>0.9977225304003667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.758348694702988</v>
+        <v>2.758249840170606</v>
       </c>
       <c r="C10">
-        <v>0.6083839135106359</v>
+        <v>0.6080077631443999</v>
       </c>
       <c r="D10">
-        <v>0.01414974395370194</v>
+        <v>0.01417247617628981</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.762302439951597</v>
+        <v>1.759810694496707</v>
       </c>
       <c r="G10">
-        <v>1.300881279633998</v>
+        <v>0.4226903732328395</v>
       </c>
       <c r="H10">
-        <v>0.8901945212087554</v>
+        <v>0.8796241063952266</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.8886309634585388</v>
       </c>
       <c r="J10">
-        <v>0.7510787780511663</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5065636140818555</v>
+        <v>0.7509385873310421</v>
       </c>
       <c r="L10">
-        <v>1.202906960215245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.5065501416429967</v>
+      </c>
+      <c r="M10">
+        <v>1.202879582528723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.968915070421986</v>
+        <v>2.96878500959906</v>
       </c>
       <c r="C11">
-        <v>0.6530618004827033</v>
+        <v>0.652648538318914</v>
       </c>
       <c r="D11">
-        <v>0.01339662177333167</v>
+        <v>0.01342236812521058</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.882216808234844</v>
+        <v>1.879549223334465</v>
       </c>
       <c r="G11">
-        <v>1.385949965435074</v>
+        <v>0.4528395451826697</v>
       </c>
       <c r="H11">
-        <v>0.9387525802021912</v>
+        <v>0.9343056636500364</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9370847802457405</v>
       </c>
       <c r="J11">
-        <v>0.808105746740452</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5473606692455633</v>
+        <v>0.8079477716505608</v>
       </c>
       <c r="L11">
-        <v>1.298721087552849</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.5473449353412647</v>
+      </c>
+      <c r="M11">
+        <v>1.298685022574148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.049232537480691</v>
+        <v>3.04908982240579</v>
       </c>
       <c r="C12">
-        <v>0.6701034688051948</v>
+        <v>0.669675855060774</v>
       </c>
       <c r="D12">
-        <v>0.01311511661622511</v>
+        <v>0.01314198010165057</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.928501264570784</v>
+        <v>1.925765945988104</v>
       </c>
       <c r="G12">
-        <v>1.418853240298219</v>
+        <v>0.4644843104296115</v>
       </c>
       <c r="H12">
-        <v>0.9576469835649988</v>
+        <v>0.9554725953958183</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9559390881310605</v>
       </c>
       <c r="J12">
-        <v>0.8298573557762339</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5630589011875671</v>
+        <v>0.8296923819913289</v>
       </c>
       <c r="L12">
-        <v>1.335423105266401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.5630422482103228</v>
+      </c>
+      <c r="M12">
+        <v>1.335383449471976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.031907306991002</v>
+        <v>3.031767356746172</v>
       </c>
       <c r="C13">
-        <v>0.6664273982670466</v>
+        <v>0.6660028895226731</v>
       </c>
       <c r="D13">
-        <v>0.01317557098203714</v>
+        <v>0.01320219499228337</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.918492271816106</v>
+        <v>1.915771595143809</v>
       </c>
       <c r="G13">
-        <v>1.411734799474729</v>
+        <v>0.4619657660730212</v>
       </c>
       <c r="H13">
-        <v>0.9535541874132321</v>
+        <v>0.9508924911637848</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9518549566491856</v>
       </c>
       <c r="J13">
-        <v>0.8251653445679494</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5596662968693167</v>
+        <v>0.8250018905571466</v>
       </c>
       <c r="L13">
-        <v>1.327498941159092</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5596498449128546</v>
+      </c>
+      <c r="M13">
+        <v>1.327460073036391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.975510627006088</v>
+        <v>2.975379542700864</v>
       </c>
       <c r="C14">
-        <v>0.6544612301862571</v>
+        <v>0.6540467935954268</v>
       </c>
       <c r="D14">
-        <v>0.01337338514088771</v>
+        <v>0.01339922390040194</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.886006443611876</v>
+        <v>1.883333310364463</v>
       </c>
       <c r="G14">
-        <v>1.388642594225672</v>
+        <v>0.4537928206679851</v>
       </c>
       <c r="H14">
-        <v>0.9402965176632136</v>
+        <v>0.9360375136468235</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.9386254321071874</v>
       </c>
       <c r="J14">
-        <v>0.8098919653614089</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5486469538286158</v>
+        <v>0.8097334200398691</v>
       </c>
       <c r="L14">
-        <v>1.30173179533719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.5486311456726014</v>
+      </c>
+      <c r="M14">
+        <v>1.301695441307459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.9410445982748</v>
+        <v>2.940918831410499</v>
       </c>
       <c r="C15">
-        <v>0.6471483161337801</v>
+        <v>0.646740008600915</v>
       </c>
       <c r="D15">
-        <v>0.01349504828031378</v>
+        <v>0.01352040281786593</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.866225395732428</v>
+        <v>1.863581228880705</v>
       </c>
       <c r="G15">
-        <v>1.374590452360522</v>
+        <v>0.4488172575752429</v>
       </c>
       <c r="H15">
-        <v>0.9322436571408304</v>
+        <v>0.9270001110573531</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9305897271985231</v>
       </c>
       <c r="J15">
-        <v>0.8005578059869904</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5419308972884238</v>
+        <v>0.8004022316354309</v>
       </c>
       <c r="L15">
-        <v>1.286005267476682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.5419154747784063</v>
+      </c>
+      <c r="M15">
+        <v>1.285970412477681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.744663591140352</v>
+        <v>2.744566666370815</v>
       </c>
       <c r="C16">
-        <v>0.6054801214816052</v>
+        <v>0.6051063576070703</v>
       </c>
       <c r="D16">
-        <v>0.01419944910456294</v>
+        <v>0.0142219810876707</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.754582057628781</v>
+        <v>1.752101653819423</v>
       </c>
       <c r="G16">
-        <v>1.295413490396953</v>
+        <v>0.4207502936405376</v>
       </c>
       <c r="H16">
-        <v>0.8870886292191216</v>
+        <v>0.8761117553489441</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8855318028156418</v>
       </c>
       <c r="J16">
-        <v>0.747372395810892</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5039302501255278</v>
+        <v>0.7472333327892215</v>
       </c>
       <c r="L16">
-        <v>1.196700373805854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.5039169176498532</v>
+      </c>
+      <c r="M16">
+        <v>1.196673524763241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.625120896052465</v>
+        <v>2.625040318590209</v>
       </c>
       <c r="C17">
-        <v>0.5801137785357184</v>
+        <v>0.5797607304394603</v>
       </c>
       <c r="D17">
-        <v>0.01463758560809936</v>
+        <v>0.01465834544643307</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.687531583718041</v>
+        <v>1.685149805473799</v>
       </c>
       <c r="G17">
-        <v>1.24797530725138</v>
+        <v>0.4039060238526417</v>
       </c>
       <c r="H17">
-        <v>0.8602240227952507</v>
+        <v>0.8456514496628813</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8587257717712973</v>
       </c>
       <c r="J17">
-        <v>0.7149955929173046</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4810221669819441</v>
+        <v>0.7148662351017663</v>
       </c>
       <c r="L17">
-        <v>1.142592201961492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4810100230633338</v>
+      </c>
+      <c r="M17">
+        <v>1.142569786549018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.556675690284465</v>
+        <v>2.556604061061876</v>
       </c>
       <c r="C18">
-        <v>0.5655889625963653</v>
+        <v>0.565247670462071</v>
       </c>
       <c r="D18">
-        <v>0.01489164574391566</v>
+        <v>0.01491137209829496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.649460523335463</v>
+        <v>1.647134854170432</v>
       </c>
       <c r="G18">
-        <v>1.221080217465712</v>
+        <v>0.3943459212572407</v>
       </c>
       <c r="H18">
-        <v>0.8450609439990302</v>
+        <v>0.8283925133056869</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.8435960499226809</v>
       </c>
       <c r="J18">
-        <v>0.6964573536032432</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4679832276991434</v>
+        <v>0.6963334352080111</v>
       </c>
       <c r="L18">
-        <v>1.111699893379367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4679717378881989</v>
+      </c>
+      <c r="M18">
+        <v>1.111679868702971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.533552329656345</v>
+        <v>2.533483655762893</v>
       </c>
       <c r="C19">
-        <v>0.560681704190614</v>
+        <v>0.5603443664847703</v>
       </c>
       <c r="D19">
-        <v>0.0149780056820088</v>
+        <v>0.01499737974373616</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.636652146006554</v>
+        <v>1.634345373496799</v>
       </c>
       <c r="G19">
-        <v>1.2120385676794</v>
+        <v>0.3911302354843116</v>
       </c>
       <c r="H19">
-        <v>0.8399748754694016</v>
+        <v>0.8225921684105515</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8385212209309287</v>
       </c>
       <c r="J19">
-        <v>0.690194321871779</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4635910026309489</v>
+        <v>0.6900722218248845</v>
       </c>
       <c r="L19">
-        <v>1.101277879573097</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4635797296454172</v>
+      </c>
+      <c r="M19">
+        <v>1.101258638427687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.637813424582987</v>
+        <v>2.63773115481672</v>
       </c>
       <c r="C20">
-        <v>0.5828071711833616</v>
+        <v>0.5824519346725765</v>
       </c>
       <c r="D20">
-        <v>0.01459072921049476</v>
+        <v>0.01461167918157003</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.694617282774701</v>
+        <v>1.692225070853198</v>
       </c>
       <c r="G20">
-        <v>1.252984224145933</v>
+        <v>0.4056856494172507</v>
       </c>
       <c r="H20">
-        <v>0.8630535146518099</v>
+        <v>0.8488666022452236</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8615490634334932</v>
       </c>
       <c r="J20">
-        <v>0.7184332838697216</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.483446326771606</v>
+        <v>0.7183029079760033</v>
       </c>
       <c r="L20">
-        <v>1.148327949631074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.483434059487621</v>
+      </c>
+      <c r="M20">
+        <v>1.148305079093632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.99205914332282</v>
+        <v>2.991925478727865</v>
       </c>
       <c r="C21">
-        <v>0.6579724599441192</v>
+        <v>0.6575550734419551</v>
       </c>
       <c r="D21">
-        <v>0.01331517789123993</v>
+        <v>0.01334124797640968</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.895523627904169</v>
+        <v>1.892836562738609</v>
       </c>
       <c r="G21">
-        <v>1.395405891587203</v>
+        <v>0.456186978771612</v>
       </c>
       <c r="H21">
-        <v>0.9441763618269476</v>
+        <v>0.9403878134673391</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.9424970270765982</v>
       </c>
       <c r="J21">
-        <v>0.8143736532562045</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5518765270218751</v>
+        <v>0.8142136736661669</v>
       </c>
       <c r="L21">
-        <v>1.309288313962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.5518605316129452</v>
+      </c>
+      <c r="M21">
+        <v>1.309251230117439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.227014662342242</v>
+        <v>3.226842453571862</v>
       </c>
       <c r="C22">
-        <v>0.7078267529734035</v>
+        <v>0.70736698149517</v>
       </c>
       <c r="D22">
-        <v>0.01250331657421277</v>
+        <v>0.01253259023628495</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.031990536048539</v>
+        <v>2.029103974591976</v>
       </c>
       <c r="G22">
-        <v>1.492553189608927</v>
+        <v>0.4905370696338593</v>
       </c>
       <c r="H22">
-        <v>1.000179998551985</v>
+        <v>1.002915476710726</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9983826882928213</v>
       </c>
       <c r="J22">
-        <v>0.8780039942578384</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5980727180528049</v>
+        <v>0.8778231031953965</v>
       </c>
       <c r="L22">
-        <v>1.416963966180703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5980539103582814</v>
+      </c>
+      <c r="M22">
+        <v>1.416915806474535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.101266303019145</v>
+        <v>3.101115167612875</v>
       </c>
       <c r="C23">
-        <v>0.6811441171916783</v>
+        <v>0.680707147383373</v>
       </c>
       <c r="D23">
-        <v>0.01293444021756862</v>
+        <v>0.01296201799613783</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.958643802031744</v>
+        <v>1.955864405396525</v>
       </c>
       <c r="G23">
-        <v>1.440300989406211</v>
+        <v>0.47207025220753</v>
       </c>
       <c r="H23">
-        <v>0.9699951658532342</v>
+        <v>0.9692748337763391</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9682611952582363</v>
       </c>
       <c r="J23">
-        <v>0.8439490808258725</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5732690225466328</v>
+        <v>0.8437795091815303</v>
       </c>
       <c r="L23">
-        <v>1.359245879928693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.573251756468693</v>
+      </c>
+      <c r="M23">
+        <v>1.359203814904035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.632074262610445</v>
+        <v>2.63199275932709</v>
       </c>
       <c r="C24">
-        <v>0.5815893073180405</v>
+        <v>0.5812350606644827</v>
       </c>
       <c r="D24">
-        <v>0.01461190626594089</v>
+        <v>0.01463277032375565</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.691412360083618</v>
+        <v>1.689024867058194</v>
       </c>
       <c r="G24">
-        <v>1.25071852250133</v>
+        <v>0.4048806969524321</v>
       </c>
       <c r="H24">
-        <v>0.8617734282246801</v>
+        <v>0.8474122475497978</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8602717810998541</v>
       </c>
       <c r="J24">
-        <v>0.7168788701699214</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4823499580640984</v>
+        <v>0.7167489549830464</v>
       </c>
       <c r="L24">
-        <v>1.145734152444959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4823377466434167</v>
+      </c>
+      <c r="M24">
+        <v>1.145711488158511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.137632363140767</v>
+        <v>2.137608969109465</v>
       </c>
       <c r="C25">
-        <v>0.4766308969774968</v>
+        <v>0.476359939605544</v>
       </c>
       <c r="D25">
-        <v>0.01649867775079894</v>
+        <v>0.01651176388651709</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.421728151805453</v>
+        <v>1.419740304313052</v>
       </c>
       <c r="G25">
-        <v>1.06087154251945</v>
+        <v>0.3372193674492081</v>
       </c>
       <c r="H25">
-        <v>0.7558918712779885</v>
+        <v>0.7257688549245813</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7546283401268283</v>
       </c>
       <c r="J25">
-        <v>0.5829455437234188</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3894138322220826</v>
+        <v>0.5828530664585685</v>
       </c>
       <c r="L25">
-        <v>0.9239995076878884</v>
+        <v>0.3894059804162069</v>
+      </c>
+      <c r="M25">
+        <v>0.9239918151920605</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.780553981932201</v>
+        <v>2.199460412807184</v>
       </c>
       <c r="C2">
-        <v>0.4005318422519792</v>
+        <v>0.4690793216547888</v>
       </c>
       <c r="D2">
-        <v>0.01794764248847702</v>
+        <v>0.05526690579833371</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.233908323611885</v>
+        <v>1.729289401392634</v>
       </c>
       <c r="G2">
-        <v>0.2906056019196654</v>
+        <v>0.0008073196340634177</v>
       </c>
       <c r="H2">
-        <v>0.6428405311594219</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6842615157756811</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1408341874018646</v>
       </c>
       <c r="K2">
-        <v>0.4861163692260817</v>
+        <v>0.5951406624119286</v>
       </c>
       <c r="L2">
-        <v>0.3242490242915324</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7660933987934797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6650326576975232</v>
+      </c>
+      <c r="N2">
+        <v>0.9891402437658385</v>
+      </c>
+      <c r="O2">
+        <v>1.118677716751364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.541600598231383</v>
+        <v>1.907500409288957</v>
       </c>
       <c r="C3">
-        <v>0.3497132356828274</v>
+        <v>0.4051573386462906</v>
       </c>
       <c r="D3">
-        <v>0.0189483131371686</v>
+        <v>0.05025523796496856</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.114213932646706</v>
+        <v>1.607519115919118</v>
       </c>
       <c r="G3">
-        <v>0.2606111346573456</v>
+        <v>0.0008142055257283061</v>
       </c>
       <c r="H3">
-        <v>0.5900053058679902</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6403786744650262</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1318678148137025</v>
       </c>
       <c r="K3">
-        <v>0.4213502864144658</v>
+        <v>0.5153883196484514</v>
       </c>
       <c r="L3">
-        <v>0.2816423738254841</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6615615386675842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5813324109681375</v>
+      </c>
+      <c r="N3">
+        <v>1.037744480008463</v>
+      </c>
+      <c r="O3">
+        <v>1.04161280330981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.395992061350569</v>
+        <v>1.730486632228775</v>
       </c>
       <c r="C4">
-        <v>0.3187055702612724</v>
+        <v>0.3663440639660962</v>
       </c>
       <c r="D4">
-        <v>0.01957501010785023</v>
+        <v>0.04721715036030361</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.043356988919413</v>
+        <v>1.536190800226706</v>
       </c>
       <c r="G4">
-        <v>0.2428634366221374</v>
+        <v>0.000818556425749256</v>
       </c>
       <c r="H4">
-        <v>0.5589975105818468</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6150701469336539</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1265978663378178</v>
       </c>
       <c r="K4">
-        <v>0.3818698173446862</v>
+        <v>0.4670151865199657</v>
       </c>
       <c r="L4">
-        <v>0.2561051715733811</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5983499294590047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.530702499363862</v>
+      </c>
+      <c r="N4">
+        <v>1.069205981823877</v>
+      </c>
+      <c r="O4">
+        <v>0.9966675665385338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.336883132775228</v>
+        <v>1.658844406159346</v>
       </c>
       <c r="C5">
-        <v>0.3061071793295014</v>
+        <v>0.3506201561805824</v>
       </c>
       <c r="D5">
-        <v>0.01983331696744184</v>
+        <v>0.04598818982753983</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.0150844757231</v>
+        <v>1.50792160162645</v>
       </c>
       <c r="G5">
-        <v>0.2357832377439522</v>
+        <v>0.0008203614163052518</v>
       </c>
       <c r="H5">
-        <v>0.5466910646085239</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6051351076273761</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1245052906304807</v>
       </c>
       <c r="K5">
-        <v>0.3658390657171537</v>
+        <v>0.4474321503149667</v>
       </c>
       <c r="L5">
-        <v>0.2458362310832811</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5728011750092108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5102400691377085</v>
+      </c>
+      <c r="N5">
+        <v>1.082417649587093</v>
+      </c>
+      <c r="O5">
+        <v>0.9789018736647321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.327080468451726</v>
+        <v>1.646975951194321</v>
       </c>
       <c r="C6">
-        <v>0.3040171682077357</v>
+        <v>0.3480143577761226</v>
       </c>
       <c r="D6">
-        <v>0.01987638086066923</v>
+        <v>0.04578464983936215</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.010424533706271</v>
+        <v>1.503273827776283</v>
       </c>
       <c r="G6">
-        <v>0.2346163158055461</v>
+        <v>0.0008206630935845283</v>
       </c>
       <c r="H6">
-        <v>0.5446666268857925</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6035073379608562</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.124161022034798</v>
       </c>
       <c r="K6">
-        <v>0.3631802745620334</v>
+        <v>0.4441876541481022</v>
       </c>
       <c r="L6">
-        <v>0.2441388669281821</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5685705990084102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.506851931580826</v>
+      </c>
+      <c r="N6">
+        <v>1.084634595389844</v>
+      </c>
+      <c r="O6">
+        <v>0.9759837979280945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.395194040588848</v>
+        <v>1.729518540221591</v>
       </c>
       <c r="C7">
-        <v>0.3185355268523722</v>
+        <v>0.3661316510574295</v>
       </c>
       <c r="D7">
-        <v>0.01957848208808244</v>
+        <v>0.04720054032942755</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.042973334234446</v>
+        <v>1.535806407438855</v>
       </c>
       <c r="G7">
-        <v>0.2427673550400087</v>
+        <v>0.000818580637756774</v>
       </c>
       <c r="H7">
-        <v>0.5588302467232609</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6149346692189752</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1265694279312655</v>
       </c>
       <c r="K7">
-        <v>0.381653404599021</v>
+        <v>0.4667505845603444</v>
       </c>
       <c r="L7">
-        <v>0.2559661477451698</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.598004560494843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5304258768626156</v>
+      </c>
+      <c r="N7">
+        <v>1.069382596847049</v>
+      </c>
+      <c r="O7">
+        <v>0.9964258053066786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.697900292284032</v>
+        <v>2.098279324614566</v>
       </c>
       <c r="C8">
-        <v>0.3829618031564621</v>
+        <v>0.4469383212561411</v>
       </c>
       <c r="D8">
-        <v>0.01829001601962332</v>
+        <v>0.05353029922594033</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.192052747279362</v>
+        <v>1.686547246765898</v>
       </c>
       <c r="G8">
-        <v>0.2801145818344821</v>
+        <v>0.0008096690292245766</v>
       </c>
       <c r="H8">
-        <v>0.6243061327792248</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6687706326480267</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1376910712864188</v>
       </c>
       <c r="K8">
-        <v>0.4637167799901292</v>
+        <v>0.5675058602609084</v>
       </c>
       <c r="L8">
-        <v>0.3094168631804521</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7298280111731614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6360007884263013</v>
+      </c>
+      <c r="N8">
+        <v>1.00555305504578</v>
+      </c>
+      <c r="O8">
+        <v>1.091583946117538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.302872972652324</v>
+        <v>2.842926711210907</v>
       </c>
       <c r="C9">
-        <v>0.5114284214809572</v>
+        <v>0.6096767143293391</v>
       </c>
       <c r="D9">
-        <v>0.01586989100174918</v>
+        <v>0.06629059521586811</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.508298959742078</v>
+        <v>2.012745453130307</v>
       </c>
       <c r="G9">
-        <v>0.3594553706557377</v>
+        <v>0.0007931173477548706</v>
       </c>
       <c r="H9">
-        <v>0.7656022811611223</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7889440326448565</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1615771772225543</v>
       </c>
       <c r="K9">
-        <v>0.6276167218631841</v>
+        <v>0.7708122300346218</v>
       </c>
       <c r="L9">
-        <v>0.4201318664265656</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9977225304003667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8501730567717942</v>
+      </c>
+      <c r="N9">
+        <v>0.8940114465470401</v>
+      </c>
+      <c r="O9">
+        <v>1.299325262475705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.758249840170606</v>
+        <v>3.408755265049479</v>
       </c>
       <c r="C10">
-        <v>0.6080077631443999</v>
+        <v>0.7331241724117774</v>
       </c>
       <c r="D10">
-        <v>0.01417247617628981</v>
+        <v>0.07593579492134239</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.759810694496707</v>
+        <v>2.276132624489676</v>
       </c>
       <c r="G10">
-        <v>0.4226903732328395</v>
+        <v>0.0007814416019438358</v>
       </c>
       <c r="H10">
-        <v>0.8796241063952266</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8886309634585388</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1807119509190045</v>
       </c>
       <c r="K10">
-        <v>0.7509385873310421</v>
+        <v>0.9252200571279303</v>
       </c>
       <c r="L10">
-        <v>0.5065501416429967</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.202879582528723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.01355898182814</v>
+      </c>
+      <c r="N10">
+        <v>0.8215726076987195</v>
+      </c>
+      <c r="O10">
+        <v>1.46838255149278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.96878500959906</v>
+        <v>3.671645509036011</v>
       </c>
       <c r="C11">
-        <v>0.652648538318914</v>
+        <v>0.7904494185355588</v>
       </c>
       <c r="D11">
-        <v>0.01342236812521058</v>
+        <v>0.08039696986661227</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.879549223334465</v>
+        <v>2.402381840304258</v>
       </c>
       <c r="G11">
-        <v>0.4528395451826697</v>
+        <v>0.0007762157937198137</v>
       </c>
       <c r="H11">
-        <v>0.9343056636500364</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9370847802457405</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1898412340617099</v>
       </c>
       <c r="K11">
-        <v>0.8079477716505608</v>
+        <v>0.9969475342719818</v>
       </c>
       <c r="L11">
-        <v>0.5473449353412647</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.298685022574148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.089619372029745</v>
+      </c>
+      <c r="N11">
+        <v>0.7909870654490021</v>
+      </c>
+      <c r="O11">
+        <v>1.549749665334502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.04908982240579</v>
+        <v>3.772116854454509</v>
       </c>
       <c r="C12">
-        <v>0.669675855060774</v>
+        <v>0.812355335680877</v>
       </c>
       <c r="D12">
-        <v>0.01314198010165057</v>
+        <v>0.08209822978731296</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.925765945988104</v>
+        <v>2.451234018388874</v>
       </c>
       <c r="G12">
-        <v>0.4644843104296115</v>
+        <v>0.0007742474145700209</v>
       </c>
       <c r="H12">
-        <v>0.9554725953958183</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9559390881310605</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.193366836515267</v>
       </c>
       <c r="K12">
-        <v>0.8296923819913289</v>
+        <v>1.024359058060128</v>
       </c>
       <c r="L12">
-        <v>0.5630422482103228</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.335383449471976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.118710403576337</v>
+      </c>
+      <c r="N12">
+        <v>0.77977450013816</v>
+      </c>
+      <c r="O12">
+        <v>1.581286779745923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.031767356746172</v>
+        <v>3.750435372413449</v>
       </c>
       <c r="C13">
-        <v>0.6660028895226731</v>
+        <v>0.8076281775596215</v>
       </c>
       <c r="D13">
-        <v>0.01320219499228337</v>
+        <v>0.08173128045299904</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.915771595143809</v>
+        <v>2.440664336870881</v>
       </c>
       <c r="G13">
-        <v>0.4619657660730212</v>
+        <v>0.0007746709026763032</v>
       </c>
       <c r="H13">
-        <v>0.9508924911637848</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9518549566491856</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1926043589468378</v>
       </c>
       <c r="K13">
-        <v>0.8250018905571466</v>
+        <v>1.018443763180485</v>
       </c>
       <c r="L13">
-        <v>0.5596498449128546</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.327460073036391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.112431624109497</v>
+      </c>
+      <c r="N13">
+        <v>0.7821723929111073</v>
+      </c>
+      <c r="O13">
+        <v>1.574461014885188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.975379542700864</v>
+        <v>3.679892097256356</v>
       </c>
       <c r="C14">
-        <v>0.6540467935954268</v>
+        <v>0.7922474766599521</v>
       </c>
       <c r="D14">
-        <v>0.01339922390040194</v>
+        <v>0.08053668666847358</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.883333310364463</v>
+        <v>2.406379277202518</v>
       </c>
       <c r="G14">
-        <v>0.4537928206679851</v>
+        <v>0.0007760536539045036</v>
       </c>
       <c r="H14">
-        <v>0.9360375136468235</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9386254321071874</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1901298681745018</v>
       </c>
       <c r="K14">
-        <v>0.8097334200398691</v>
+        <v>0.9991974673073543</v>
       </c>
       <c r="L14">
-        <v>0.5486311456726014</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.301695441307459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.092006685073564</v>
+      </c>
+      <c r="N14">
+        <v>0.7900570166438214</v>
+      </c>
+      <c r="O14">
+        <v>1.552329197442205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.940918831410499</v>
+        <v>3.636806312905946</v>
       </c>
       <c r="C15">
-        <v>0.646740008600915</v>
+        <v>0.7828531029540216</v>
       </c>
       <c r="D15">
-        <v>0.01352040281786593</v>
+        <v>0.07980655668402648</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.863581228880705</v>
+        <v>2.385518460096534</v>
       </c>
       <c r="G15">
-        <v>0.4488172575752429</v>
+        <v>0.0007769019431798362</v>
       </c>
       <c r="H15">
-        <v>0.9270001110573531</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9305897271985231</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1886233325473867</v>
       </c>
       <c r="K15">
-        <v>0.8004022316354309</v>
+        <v>0.987442239143931</v>
       </c>
       <c r="L15">
-        <v>0.5419154747784063</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.285970412477681</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.079534640000404</v>
+      </c>
+      <c r="N15">
+        <v>0.7949356189561527</v>
+      </c>
+      <c r="O15">
+        <v>1.538869896055658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.744566666370815</v>
+        <v>3.391696135476366</v>
       </c>
       <c r="C16">
-        <v>0.6051063576070703</v>
+        <v>0.729403836686231</v>
       </c>
       <c r="D16">
-        <v>0.0142219810876707</v>
+        <v>0.07564583715425499</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.752101653819423</v>
+        <v>2.26802128865242</v>
       </c>
       <c r="G16">
-        <v>0.4207502936405376</v>
+        <v>0.0007817846942767841</v>
       </c>
       <c r="H16">
-        <v>0.8761117553489441</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8855318028156418</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.180124497692205</v>
       </c>
       <c r="K16">
-        <v>0.7472333327892215</v>
+        <v>0.9205654080745944</v>
       </c>
       <c r="L16">
-        <v>0.5039169176498532</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.196673524763241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.008626418694945</v>
+      </c>
+      <c r="N16">
+        <v>0.8236214938606921</v>
+      </c>
+      <c r="O16">
+        <v>1.463161736492026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.625040318590209</v>
+        <v>3.242824217998248</v>
       </c>
       <c r="C17">
-        <v>0.5797607304394603</v>
+        <v>0.6969340302526348</v>
       </c>
       <c r="D17">
-        <v>0.01465834544643307</v>
+        <v>0.07311310834754892</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.685149805473799</v>
+        <v>2.197669041549204</v>
       </c>
       <c r="G17">
-        <v>0.4039060238526417</v>
+        <v>0.0007848008052168259</v>
       </c>
       <c r="H17">
-        <v>0.8456514496628813</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8587257717712973</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1750245909639503</v>
       </c>
       <c r="K17">
-        <v>0.7148662351017663</v>
+        <v>0.8799438457620425</v>
       </c>
       <c r="L17">
-        <v>0.4810100230633338</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.142569786549018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9655974568033301</v>
+      </c>
+      <c r="N17">
+        <v>0.8418453561988386</v>
+      </c>
+      <c r="O17">
+        <v>1.417916636052482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.556604061061876</v>
+        <v>3.157705328144459</v>
       </c>
       <c r="C18">
-        <v>0.565247670462071</v>
+        <v>0.6783662365931491</v>
       </c>
       <c r="D18">
-        <v>0.01491137209829496</v>
+        <v>0.07166318204672706</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.647134854170432</v>
+        <v>2.15780192511059</v>
       </c>
       <c r="G18">
-        <v>0.3943459212572407</v>
+        <v>0.0007865437616068598</v>
       </c>
       <c r="H18">
-        <v>0.8283925133056869</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8435960499226809</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1721307499720623</v>
       </c>
       <c r="K18">
-        <v>0.6963334352080111</v>
+        <v>0.8567169352581345</v>
       </c>
       <c r="L18">
-        <v>0.4679717378881989</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.111679868702971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9410090928101837</v>
+      </c>
+      <c r="N18">
+        <v>0.8525481307751903</v>
+      </c>
+      <c r="O18">
+        <v>1.392307327790746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.533483655762893</v>
+        <v>3.128969081575974</v>
       </c>
       <c r="C19">
-        <v>0.5603443664847703</v>
+        <v>0.6720971851745503</v>
       </c>
       <c r="D19">
-        <v>0.01499737974373616</v>
+        <v>0.07117339696964109</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.634345373496799</v>
+        <v>2.144402825916899</v>
       </c>
       <c r="G19">
-        <v>0.3911302354843116</v>
+        <v>0.0007871353510196452</v>
       </c>
       <c r="H19">
-        <v>0.8225921684105515</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8385212209309287</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1711575133659267</v>
       </c>
       <c r="K19">
-        <v>0.6900722218248845</v>
+        <v>0.8488752885955648</v>
       </c>
       <c r="L19">
-        <v>0.4635797296454172</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.101258638427687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9327103834770227</v>
+      </c>
+      <c r="N19">
+        <v>0.8562090102825906</v>
+      </c>
+      <c r="O19">
+        <v>1.383705247237756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.63773115481672</v>
+        <v>3.258618378973665</v>
       </c>
       <c r="C20">
-        <v>0.5824519346725765</v>
+        <v>0.7003791140768669</v>
       </c>
       <c r="D20">
-        <v>0.01461167918157003</v>
+        <v>0.07338200530984551</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.692225070853198</v>
+        <v>2.205095483123202</v>
       </c>
       <c r="G20">
-        <v>0.4056856494172507</v>
+        <v>0.0007844789019790706</v>
       </c>
       <c r="H20">
-        <v>0.8488666022452236</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8615490634334932</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1755633461619368</v>
       </c>
       <c r="K20">
-        <v>0.7183029079760033</v>
+        <v>0.8842535968828997</v>
       </c>
       <c r="L20">
-        <v>0.483434059487621</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.148305079093632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9701610560551615</v>
+      </c>
+      <c r="N20">
+        <v>0.839882333115952</v>
+      </c>
+      <c r="O20">
+        <v>1.422689581969848</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.991925478727865</v>
+        <v>3.700586269533744</v>
       </c>
       <c r="C21">
-        <v>0.6575550734419551</v>
+        <v>0.7967595280195212</v>
       </c>
       <c r="D21">
-        <v>0.01334124797640968</v>
+        <v>0.0808872332010111</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.892836562738609</v>
+        <v>2.41642026990138</v>
       </c>
       <c r="G21">
-        <v>0.456186978771612</v>
+        <v>0.0007756472359633153</v>
       </c>
       <c r="H21">
-        <v>0.9403878134673391</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9424970270765982</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1908547623767518</v>
       </c>
       <c r="K21">
-        <v>0.8142136736661669</v>
+        <v>1.004843480964723</v>
       </c>
       <c r="L21">
-        <v>0.5518605316129452</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.309251230117439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.097997818769237</v>
+      </c>
+      <c r="N21">
+        <v>0.7877308343558198</v>
+      </c>
+      <c r="O21">
+        <v>1.558809455606479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.226842453571862</v>
+        <v>3.99487493644682</v>
       </c>
       <c r="C22">
-        <v>0.70736698149517</v>
+        <v>0.8609209117707906</v>
       </c>
       <c r="D22">
-        <v>0.01253259023628495</v>
+        <v>0.08586248350530923</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.029103974591976</v>
+        <v>2.560685828829889</v>
       </c>
       <c r="G22">
-        <v>0.4905370696338593</v>
+        <v>0.0007699355870793498</v>
       </c>
       <c r="H22">
-        <v>1.002915476710726</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9983826882928213</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2012521724669654</v>
       </c>
       <c r="K22">
-        <v>0.8778231031953965</v>
+        <v>1.085132277308418</v>
       </c>
       <c r="L22">
-        <v>0.5980539103582814</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.416915806474535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.183250182963675</v>
+      </c>
+      <c r="N22">
+        <v>0.7558166446272097</v>
+      </c>
+      <c r="O22">
+        <v>1.652044246643499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.101115167612875</v>
+        <v>3.837262904877264</v>
       </c>
       <c r="C23">
-        <v>0.680707147383373</v>
+        <v>0.826558726170191</v>
       </c>
       <c r="D23">
-        <v>0.01296201799613783</v>
+        <v>0.08320019871875672</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.955864405396525</v>
+        <v>2.483082614402676</v>
       </c>
       <c r="G23">
-        <v>0.47207025220753</v>
+        <v>0.0007729791185032362</v>
       </c>
       <c r="H23">
-        <v>0.9692748337763391</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9682611952582363</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1956632659725983</v>
       </c>
       <c r="K23">
-        <v>0.8437795091815303</v>
+        <v>1.042132521364294</v>
       </c>
       <c r="L23">
-        <v>0.573251756468693</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.359203814904035</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.137579426074083</v>
+      </c>
+      <c r="N23">
+        <v>0.7726407939990594</v>
+      </c>
+      <c r="O23">
+        <v>1.601862011248016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.63199275932709</v>
+        <v>3.251476385926594</v>
       </c>
       <c r="C24">
-        <v>0.5812350606644827</v>
+        <v>0.698821283893011</v>
       </c>
       <c r="D24">
-        <v>0.01463277032375565</v>
+        <v>0.07326041786410542</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.689024867058194</v>
+        <v>2.201736193259563</v>
       </c>
       <c r="G24">
-        <v>0.4048806969524321</v>
+        <v>0.0007846244064324457</v>
       </c>
       <c r="H24">
-        <v>0.8474122475497978</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8602717810998541</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1753196566201254</v>
       </c>
       <c r="K24">
-        <v>0.7167489549830464</v>
+        <v>0.8823047656062641</v>
       </c>
       <c r="L24">
-        <v>0.4823377466434167</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.145711488158511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9680973898879657</v>
+      </c>
+      <c r="N24">
+        <v>0.8407691152139094</v>
+      </c>
+      <c r="O24">
+        <v>1.420530484985733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.137608969109465</v>
+        <v>2.638629423562293</v>
       </c>
       <c r="C25">
-        <v>0.476359939605544</v>
+        <v>0.5650698133251524</v>
       </c>
       <c r="D25">
-        <v>0.01651176388651709</v>
+        <v>0.06279570424382541</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.419740304313052</v>
+        <v>1.920730342043299</v>
       </c>
       <c r="G25">
-        <v>0.3372193674492081</v>
+        <v>0.0007975037832626865</v>
       </c>
       <c r="H25">
-        <v>0.7257688549245813</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7546283401268283</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1548618768974848</v>
       </c>
       <c r="K25">
-        <v>0.5828530664585685</v>
+        <v>0.7150488025192203</v>
       </c>
       <c r="L25">
-        <v>0.3894059804162069</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9239918151920605</v>
+        <v>0.7913056478201952</v>
+      </c>
+      <c r="N25">
+        <v>0.9226106769288691</v>
+      </c>
+      <c r="O25">
+        <v>1.240517983802533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.199460412807184</v>
+        <v>2.516762830746416</v>
       </c>
       <c r="C2">
-        <v>0.4690793216547888</v>
+        <v>0.3062059756700535</v>
       </c>
       <c r="D2">
-        <v>0.05526690579833371</v>
+        <v>0.04942487081810754</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.729289401392634</v>
+        <v>0.4292235730179428</v>
       </c>
       <c r="G2">
-        <v>0.0008073196340634177</v>
+        <v>0.3236438343176644</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2397258146793462</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1408341874018646</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5951406624119286</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4096630833283257</v>
       </c>
       <c r="M2">
-        <v>0.6650326576975232</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9891402437658385</v>
+        <v>0.7063950642803576</v>
       </c>
       <c r="O2">
-        <v>1.118677716751364</v>
+        <v>1.138920461036747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.907500409288957</v>
+        <v>2.188617506997957</v>
       </c>
       <c r="C3">
-        <v>0.4051573386462906</v>
+        <v>0.293221415533452</v>
       </c>
       <c r="D3">
-        <v>0.05025523796496856</v>
+        <v>0.04363007901574889</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.607519115919118</v>
+        <v>0.391489828536244</v>
       </c>
       <c r="G3">
-        <v>0.0008142055257283061</v>
+        <v>0.2943661986047346</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2314635018415316</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1318678148137025</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5153883196484514</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3610157585365243</v>
       </c>
       <c r="M3">
-        <v>0.5813324109681375</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.037744480008463</v>
+        <v>0.7141405588231891</v>
       </c>
       <c r="O3">
-        <v>1.04161280330981</v>
+        <v>1.05919831694149</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.730486632228775</v>
+        <v>1.98733827531683</v>
       </c>
       <c r="C4">
-        <v>0.3663440639660962</v>
+        <v>0.2852940879567996</v>
       </c>
       <c r="D4">
-        <v>0.04721715036030361</v>
+        <v>0.04006286192080211</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.536190800226706</v>
+        <v>0.3691436819204981</v>
       </c>
       <c r="G4">
-        <v>0.000818556425749256</v>
+        <v>0.2771389645919342</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2268709011569996</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1265978663378178</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4670151865199657</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3315557423582618</v>
       </c>
       <c r="M4">
-        <v>0.530702499363862</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.069205981823877</v>
+        <v>0.7198067268439416</v>
       </c>
       <c r="O4">
-        <v>0.9966675665385338</v>
+        <v>1.012833268630899</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.658844406159346</v>
+        <v>1.905343222930895</v>
       </c>
       <c r="C5">
-        <v>0.3506201561805824</v>
+        <v>0.2820750012333093</v>
       </c>
       <c r="D5">
-        <v>0.04598818982753983</v>
+        <v>0.03860666119671663</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.50792160162645</v>
+        <v>0.3602309697027408</v>
       </c>
       <c r="G5">
-        <v>0.0008203614163052518</v>
+        <v>0.2702943810121283</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2251144611230131</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1245052906304807</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4474321503149667</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3196444065870168</v>
       </c>
       <c r="M5">
-        <v>0.5102400691377085</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.082417649587093</v>
+        <v>0.7223373741294523</v>
       </c>
       <c r="O5">
-        <v>0.9789018736647321</v>
+        <v>0.9945499496083414</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.646975951194321</v>
+        <v>1.891729036754953</v>
       </c>
       <c r="C6">
-        <v>0.3480143577761226</v>
+        <v>0.281541160763382</v>
       </c>
       <c r="D6">
-        <v>0.04578464983936215</v>
+        <v>0.0383647011560484</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.503273827776283</v>
+        <v>0.3587623314155763</v>
       </c>
       <c r="G6">
-        <v>0.0008206630935845283</v>
+        <v>0.2691680897497051</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.224829593426918</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.124161022034798</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4441876541481022</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.317671948391407</v>
       </c>
       <c r="M6">
-        <v>0.506851931580826</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.084634595389844</v>
+        <v>0.7227707664552412</v>
       </c>
       <c r="O6">
-        <v>0.9759837979280945</v>
+        <v>0.9915498003878156</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.729518540221591</v>
+        <v>1.986232378272263</v>
       </c>
       <c r="C7">
-        <v>0.3661316510574295</v>
+        <v>0.2852506282163887</v>
       </c>
       <c r="D7">
-        <v>0.04720054032942755</v>
+        <v>0.0400432336163945</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.535806407438855</v>
+        <v>0.3690227155413979</v>
       </c>
       <c r="G7">
-        <v>0.000818580637756774</v>
+        <v>0.2770459613863281</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2268467546231818</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1265694279312655</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4667505845603444</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.331394733646178</v>
       </c>
       <c r="M7">
-        <v>0.5304258768626156</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.069382596847049</v>
+        <v>0.7198399679950782</v>
       </c>
       <c r="O7">
-        <v>0.9964258053066786</v>
+        <v>1.01258427062298</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.098279324614566</v>
+        <v>2.403561599843385</v>
       </c>
       <c r="C8">
-        <v>0.4469383212561411</v>
+        <v>0.3017194887788008</v>
       </c>
       <c r="D8">
-        <v>0.05353029922594033</v>
+        <v>0.04742859655099352</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.686547246765898</v>
+        <v>0.4160340542034078</v>
       </c>
       <c r="G8">
-        <v>0.0008096690292245766</v>
+        <v>0.3133854960423434</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2367737009998478</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1376910712864188</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5675058602609084</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3927988061705463</v>
       </c>
       <c r="M8">
-        <v>0.6360007884263013</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.00555305504578</v>
+        <v>0.7088722533428324</v>
       </c>
       <c r="O8">
-        <v>1.091583946117538</v>
+        <v>1.110871684849798</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.842926711210907</v>
+        <v>3.224714151424621</v>
       </c>
       <c r="C9">
-        <v>0.6096767143293391</v>
+        <v>0.334377576711546</v>
       </c>
       <c r="D9">
-        <v>0.06629059521586811</v>
+        <v>0.06184955746958565</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.012745453130307</v>
+        <v>0.5153844492616528</v>
       </c>
       <c r="G9">
-        <v>0.0007931173477548706</v>
+        <v>0.3912020536838696</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2603265131902788</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1615771772225543</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7708122300346218</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5169031473852783</v>
       </c>
       <c r="M9">
-        <v>0.8501730567717942</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8940114465470401</v>
+        <v>0.6949356063277463</v>
       </c>
       <c r="O9">
-        <v>1.299325262475705</v>
+        <v>1.325985916713876</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.408755265049479</v>
+        <v>3.83147908869779</v>
       </c>
       <c r="C10">
-        <v>0.7331241724117774</v>
+        <v>0.3586022676448266</v>
       </c>
       <c r="D10">
-        <v>0.07593579492134239</v>
+        <v>0.07242455049659213</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.276132624489676</v>
+        <v>0.5936795056951354</v>
       </c>
       <c r="G10">
-        <v>0.0007814416019438358</v>
+        <v>0.4532677243766443</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2805249857519527</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1807119509190045</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9252200571279303</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.6109893884652706</v>
       </c>
       <c r="M10">
-        <v>1.01355898182814</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8215726076987195</v>
+        <v>0.6898228197235028</v>
       </c>
       <c r="O10">
-        <v>1.46838255149278</v>
+        <v>1.500418068403093</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.671645509036011</v>
+        <v>4.108692096883203</v>
       </c>
       <c r="C11">
-        <v>0.7904494185355588</v>
+        <v>0.3696756690507499</v>
       </c>
       <c r="D11">
-        <v>0.08039696986661227</v>
+        <v>0.07723523116541742</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.402381840304258</v>
+        <v>0.6306707613335192</v>
       </c>
       <c r="G11">
-        <v>0.0007762157937198137</v>
+        <v>0.4827781768336621</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.290437762801389</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1898412340617099</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9969475342719818</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6545789970046485</v>
       </c>
       <c r="M11">
-        <v>1.089619372029745</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7909870654490021</v>
+        <v>0.6887310702085756</v>
       </c>
       <c r="O11">
-        <v>1.549749665334502</v>
+        <v>1.583980949907726</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.772116854454509</v>
+        <v>4.213874173992338</v>
       </c>
       <c r="C12">
-        <v>0.812355335680877</v>
+        <v>0.3738767862542716</v>
       </c>
       <c r="D12">
-        <v>0.08209822978731296</v>
+        <v>0.07905727153018915</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.451234018388874</v>
+        <v>0.6448956591231365</v>
       </c>
       <c r="G12">
-        <v>0.0007742474145700209</v>
+        <v>0.4941554659349805</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2943041495871199</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.193366836515267</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.024359058060128</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6712125527283064</v>
       </c>
       <c r="M12">
-        <v>1.118710403576337</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.77977450013816</v>
+        <v>0.6885059337658532</v>
       </c>
       <c r="O12">
-        <v>1.581286779745923</v>
+        <v>1.616287727317939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.750435372413449</v>
+        <v>4.191211498568975</v>
       </c>
       <c r="C13">
-        <v>0.8076281775596215</v>
+        <v>0.3729716478080149</v>
       </c>
       <c r="D13">
-        <v>0.08173128045299904</v>
+        <v>0.07866484189493406</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.440664336870881</v>
+        <v>0.6418220927602079</v>
       </c>
       <c r="G13">
-        <v>0.0007746709026763032</v>
+        <v>0.4916958523856181</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2934663036084402</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1926043589468378</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.018443763180485</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6676243382701301</v>
       </c>
       <c r="M13">
-        <v>1.112431624109497</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7821723929111073</v>
+        <v>0.6885458669919871</v>
       </c>
       <c r="O13">
-        <v>1.574461014885188</v>
+        <v>1.609299425099067</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.679892097256356</v>
+        <v>4.117341114290184</v>
       </c>
       <c r="C14">
-        <v>0.7922474766599521</v>
+        <v>0.3700211388534314</v>
       </c>
       <c r="D14">
-        <v>0.08053668666847358</v>
+        <v>0.07738512272955944</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.406379277202518</v>
+        <v>0.6318365848218548</v>
       </c>
       <c r="G14">
-        <v>0.0007760536539045036</v>
+        <v>0.4837100264023775</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2907535448750309</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1901298681745018</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9991974673073543</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6559448206335645</v>
       </c>
       <c r="M14">
-        <v>1.092006685073564</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7900570166438214</v>
+        <v>0.6887087100693918</v>
       </c>
       <c r="O14">
-        <v>1.552329197442205</v>
+        <v>1.586625210391247</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.636806312905946</v>
+        <v>4.072121513498246</v>
       </c>
       <c r="C15">
-        <v>0.7828531029540216</v>
+        <v>0.3682148962538179</v>
       </c>
       <c r="D15">
-        <v>0.07980655668402648</v>
+        <v>0.07660131228814038</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.385518460096534</v>
+        <v>0.62574904730036</v>
       </c>
       <c r="G15">
-        <v>0.0007769019431798362</v>
+        <v>0.4788454042528798</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2891068311156602</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1886233325473867</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.987442239143931</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6488077535945109</v>
       </c>
       <c r="M15">
-        <v>1.079534640000404</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7949356189561527</v>
+        <v>0.688833309723762</v>
       </c>
       <c r="O15">
-        <v>1.538869896055658</v>
+        <v>1.572824758002895</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.391696135476366</v>
+        <v>3.813389583051162</v>
       </c>
       <c r="C16">
-        <v>0.729403836686231</v>
+        <v>0.3578796846576324</v>
       </c>
       <c r="D16">
-        <v>0.07564583715425499</v>
+        <v>0.07211019023294796</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.26802128865242</v>
+        <v>0.5912913324617719</v>
       </c>
       <c r="G16">
-        <v>0.0007817846942767841</v>
+        <v>0.4513664083774103</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2798924498636239</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.180124497692205</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9205654080745944</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.6081577303590393</v>
       </c>
       <c r="M16">
-        <v>1.008626418694945</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8236214938606921</v>
+        <v>0.6899199106724581</v>
       </c>
       <c r="O16">
-        <v>1.463161736492026</v>
+        <v>1.495046640399011</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.242824217998248</v>
+        <v>3.654996164323222</v>
       </c>
       <c r="C17">
-        <v>0.6969340302526348</v>
+        <v>0.3515531732626016</v>
       </c>
       <c r="D17">
-        <v>0.07311310834754892</v>
+        <v>0.06935527670583497</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.197669041549204</v>
+        <v>0.5705181194497086</v>
       </c>
       <c r="G17">
-        <v>0.0007848008052168259</v>
+        <v>0.434848829546624</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2744311058234956</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1750245909639503</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8799438457620425</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5834318115349078</v>
       </c>
       <c r="M17">
-        <v>0.9655974568033301</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8418453561988386</v>
+        <v>0.6909100692638503</v>
       </c>
       <c r="O17">
-        <v>1.417916636052482</v>
+        <v>1.44845101934348</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.157705328144459</v>
+        <v>3.56400239649372</v>
       </c>
       <c r="C18">
-        <v>0.6783662365931491</v>
+        <v>0.3479193515865546</v>
       </c>
       <c r="D18">
-        <v>0.07166318204672706</v>
+        <v>0.06777070809742725</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.15780192511059</v>
+        <v>0.5586980461119282</v>
       </c>
       <c r="G18">
-        <v>0.0007865437616068598</v>
+        <v>0.4254673064463503</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2713575285833656</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1721307499720623</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8567169352581345</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5692835406323269</v>
       </c>
       <c r="M18">
-        <v>0.9410090928101837</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8525481307751903</v>
+        <v>0.6915950515073703</v>
       </c>
       <c r="O18">
-        <v>1.392307327790746</v>
+        <v>1.42204331510996</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.128969081575974</v>
+        <v>3.533211298164076</v>
       </c>
       <c r="C19">
-        <v>0.6720971851745503</v>
+        <v>0.3466898595639236</v>
       </c>
       <c r="D19">
-        <v>0.07117339696964109</v>
+        <v>0.06723418807461456</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.144402825916899</v>
+        <v>0.5547174062871321</v>
       </c>
       <c r="G19">
-        <v>0.0007871353510196452</v>
+        <v>0.4223107624176947</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2703282371875417</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1711575133659267</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8488752885955648</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.564505390160349</v>
       </c>
       <c r="M19">
-        <v>0.9327103834770227</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8562090102825906</v>
+        <v>0.6918464880407527</v>
       </c>
       <c r="O19">
-        <v>1.383705247237756</v>
+        <v>1.413167904502586</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.258618378973665</v>
+        <v>3.67184578368699</v>
       </c>
       <c r="C20">
-        <v>0.7003791140768669</v>
+        <v>0.3522261204747252</v>
       </c>
       <c r="D20">
-        <v>0.07338200530984551</v>
+        <v>0.06964854120507624</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.205095483123202</v>
+        <v>0.5727160655952588</v>
       </c>
       <c r="G20">
-        <v>0.0007844789019790706</v>
+        <v>0.4365947110477606</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2750054148646086</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1755633461619368</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8842535968828997</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5860562331052677</v>
       </c>
       <c r="M20">
-        <v>0.9701610560551615</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.839882333115952</v>
+        <v>0.6907926383530025</v>
       </c>
       <c r="O20">
-        <v>1.422689581969848</v>
+        <v>1.453370138290467</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.700586269533744</v>
+        <v>4.139032703688997</v>
       </c>
       <c r="C21">
-        <v>0.7967595280195212</v>
+        <v>0.3708875599893844</v>
       </c>
       <c r="D21">
-        <v>0.0808872332010111</v>
+        <v>0.07776099528798142</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.41642026990138</v>
+        <v>0.6347635165559922</v>
       </c>
       <c r="G21">
-        <v>0.0007756472359633153</v>
+        <v>0.4860500102397083</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.29154722069174</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1908547623767518</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.004843480964723</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.659371814897213</v>
       </c>
       <c r="M21">
-        <v>1.097997818769237</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7877308343558198</v>
+        <v>0.6886556793370602</v>
       </c>
       <c r="O21">
-        <v>1.558809455606479</v>
+        <v>1.593266696438434</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.99487493644682</v>
+        <v>4.445594730195069</v>
       </c>
       <c r="C22">
-        <v>0.8609209117707906</v>
+        <v>0.3831298099391063</v>
       </c>
       <c r="D22">
-        <v>0.08586248350530923</v>
+        <v>0.08306510543550161</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.560685828829889</v>
+        <v>0.6765905990411625</v>
       </c>
       <c r="G22">
-        <v>0.0007699355870793498</v>
+        <v>0.5195608335439488</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3030191127746775</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2012521724669654</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.085132277308418</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.7080357403745552</v>
       </c>
       <c r="M22">
-        <v>1.183250182963675</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7558166446272097</v>
+        <v>0.6883620596918547</v>
       </c>
       <c r="O22">
-        <v>1.652044246643499</v>
+        <v>1.688593132357056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.837262904877264</v>
+        <v>4.281851776439908</v>
       </c>
       <c r="C23">
-        <v>0.826558726170191</v>
+        <v>0.3765916234597313</v>
       </c>
       <c r="D23">
-        <v>0.08320019871875672</v>
+        <v>0.08023388955798083</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.483082614402676</v>
+        <v>0.6541432128389459</v>
       </c>
       <c r="G23">
-        <v>0.0007729791185032362</v>
+        <v>0.501560151532999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.296832928298997</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1956632659725983</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.042132521364294</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6819896977140729</v>
       </c>
       <c r="M23">
-        <v>1.137579426074083</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7726407939990594</v>
+        <v>0.6884140828737202</v>
       </c>
       <c r="O23">
-        <v>1.601862011248016</v>
+        <v>1.637339095918804</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.251476385926594</v>
+        <v>3.664227859420691</v>
       </c>
       <c r="C24">
-        <v>0.698821283893011</v>
+        <v>0.3519218705436487</v>
       </c>
       <c r="D24">
-        <v>0.07326041786410542</v>
+        <v>0.06951595863001359</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.201736193259563</v>
+        <v>0.5717219933433242</v>
       </c>
       <c r="G24">
-        <v>0.0007846244064324457</v>
+        <v>0.4358050423067681</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2747455641131893</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1753196566201254</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8823047656062641</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5848695244751951</v>
       </c>
       <c r="M24">
-        <v>0.9680973898879657</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8407691152139094</v>
+        <v>0.6908453692149834</v>
       </c>
       <c r="O24">
-        <v>1.420530484985733</v>
+        <v>1.451145023001828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.638629423562293</v>
+        <v>3.002098102038985</v>
       </c>
       <c r="C25">
-        <v>0.5650698133251524</v>
+        <v>0.3255029771175373</v>
       </c>
       <c r="D25">
-        <v>0.06279570424382541</v>
+        <v>0.05795316756599789</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.920730342043299</v>
+        <v>0.4876475489477485</v>
       </c>
       <c r="G25">
-        <v>0.0007975037832626865</v>
+        <v>0.3693594637430806</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2534772693208538</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1548618768974848</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7150488025192203</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4828691762764379</v>
       </c>
       <c r="M25">
-        <v>0.7913056478201952</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9226106769288691</v>
+        <v>0.6978444944380513</v>
       </c>
       <c r="O25">
-        <v>1.240517983802533</v>
+        <v>1.265122962499504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.516762830746416</v>
+        <v>0.9632929301833428</v>
       </c>
       <c r="C2">
-        <v>0.3062059756700535</v>
+        <v>0.3291852076740582</v>
       </c>
       <c r="D2">
-        <v>0.04942487081810754</v>
+        <v>0.01843078997180925</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4292235730179428</v>
+        <v>0.5048314631687987</v>
       </c>
       <c r="G2">
-        <v>0.3236438343176644</v>
+        <v>0.3485194568486634</v>
       </c>
       <c r="H2">
-        <v>0.2397258146793462</v>
+        <v>0.5010858148871762</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4096630833283257</v>
+        <v>0.3002857918979061</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7063950642803576</v>
+        <v>1.026827486438648</v>
       </c>
       <c r="O2">
-        <v>1.138920461036747</v>
+        <v>1.635046513147643</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.188617506997957</v>
+        <v>0.864329848898592</v>
       </c>
       <c r="C3">
-        <v>0.293221415533452</v>
+        <v>0.3251402203457303</v>
       </c>
       <c r="D3">
-        <v>0.04363007901574889</v>
+        <v>0.01651906018789617</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.391489828536244</v>
+        <v>0.4996735839254995</v>
       </c>
       <c r="G3">
-        <v>0.2943661986047346</v>
+        <v>0.3446663276027806</v>
       </c>
       <c r="H3">
-        <v>0.2314635018415316</v>
+        <v>0.5030186136621495</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3610157585365243</v>
+        <v>0.2887333619204639</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7141405588231891</v>
+        <v>1.032039124809209</v>
       </c>
       <c r="O3">
-        <v>1.05919831694149</v>
+        <v>1.630651147356332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.98733827531683</v>
+        <v>0.8035916768343441</v>
       </c>
       <c r="C4">
-        <v>0.2852940879567996</v>
+        <v>0.322689165744336</v>
       </c>
       <c r="D4">
-        <v>0.04006286192080211</v>
+        <v>0.01533791880488167</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3691436819204981</v>
+        <v>0.4968781587208397</v>
       </c>
       <c r="G4">
-        <v>0.2771389645919342</v>
+        <v>0.3426017108718113</v>
       </c>
       <c r="H4">
-        <v>0.2268709011569996</v>
+        <v>0.5044746769922952</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3315557423582618</v>
+        <v>0.2818117439585421</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7198067268439416</v>
+        <v>1.035661137352122</v>
       </c>
       <c r="O4">
-        <v>1.012833268630899</v>
+        <v>1.629144940626716</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.905343222930895</v>
+        <v>0.778848423792283</v>
       </c>
       <c r="C5">
-        <v>0.2820750012333093</v>
+        <v>0.3216987072246553</v>
       </c>
       <c r="D5">
-        <v>0.03860666119671663</v>
+        <v>0.01485477947802849</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3602309697027408</v>
+        <v>0.4958323704339023</v>
       </c>
       <c r="G5">
-        <v>0.2702943810121283</v>
+        <v>0.3418359612611468</v>
       </c>
       <c r="H5">
-        <v>0.2251144611230131</v>
+        <v>0.505135772291311</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3196444065870168</v>
+        <v>0.2790343412250849</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7223373741294523</v>
+        <v>1.037243417704445</v>
       </c>
       <c r="O5">
-        <v>0.9945499496083414</v>
+        <v>1.628830746487651</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.891729036754953</v>
+        <v>0.7747403590585975</v>
       </c>
       <c r="C6">
-        <v>0.281541160763382</v>
+        <v>0.3215347527210497</v>
       </c>
       <c r="D6">
-        <v>0.0383647011560484</v>
+        <v>0.01477444581318821</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3587623314155763</v>
+        <v>0.4956643558032923</v>
       </c>
       <c r="G6">
-        <v>0.2691680897497051</v>
+        <v>0.3417133708038662</v>
       </c>
       <c r="H6">
-        <v>0.224829593426918</v>
+        <v>0.5052496383179559</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.317671948391407</v>
+        <v>0.2785757672621827</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7227707664552412</v>
+        <v>1.037512577866629</v>
       </c>
       <c r="O6">
-        <v>0.9915498003878156</v>
+        <v>1.628796661437846</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.986232378272263</v>
+        <v>0.8032579459503779</v>
       </c>
       <c r="C7">
-        <v>0.2852506282163887</v>
+        <v>0.3226757739701469</v>
       </c>
       <c r="D7">
-        <v>0.0400432336163945</v>
+        <v>0.01533141032862062</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3690227155413979</v>
+        <v>0.496863676875634</v>
       </c>
       <c r="G7">
-        <v>0.2770459613863281</v>
+        <v>0.3425910778032417</v>
       </c>
       <c r="H7">
-        <v>0.2268467546231818</v>
+        <v>0.5044833184669599</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.331394733646178</v>
+        <v>0.2817741118901722</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7198399679950782</v>
+        <v>1.035682046004723</v>
       </c>
       <c r="O7">
-        <v>1.01258427062298</v>
+        <v>1.629139490614364</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.403561599843385</v>
+        <v>0.9291660941681243</v>
       </c>
       <c r="C8">
-        <v>0.3017194887788008</v>
+        <v>0.3277838351075957</v>
       </c>
       <c r="D8">
-        <v>0.04742859655099352</v>
+        <v>0.01777316404363205</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4160340542034078</v>
+        <v>0.5029758785731318</v>
       </c>
       <c r="G8">
-        <v>0.3133854960423434</v>
+        <v>0.3471282898257471</v>
       </c>
       <c r="H8">
-        <v>0.2367737009998478</v>
+        <v>0.5016963557535519</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3927988061705463</v>
+        <v>0.2962669243228362</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7088722533428324</v>
+        <v>1.028536954120433</v>
       </c>
       <c r="O8">
-        <v>1.110871684849798</v>
+        <v>1.633283297572348</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.224714151424621</v>
+        <v>1.176215387474201</v>
       </c>
       <c r="C9">
-        <v>0.334377576711546</v>
+        <v>0.3380522585948285</v>
       </c>
       <c r="D9">
-        <v>0.06184955746958565</v>
+        <v>0.0225022009267164</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5153844492616528</v>
+        <v>0.5179137668709757</v>
       </c>
       <c r="G9">
-        <v>0.3912020536838696</v>
+        <v>0.3584234119696958</v>
       </c>
       <c r="H9">
-        <v>0.2603265131902788</v>
+        <v>0.4983677679927609</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5169031473852783</v>
+        <v>0.3260483224341328</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6949356063277463</v>
+        <v>1.017868015395422</v>
       </c>
       <c r="O9">
-        <v>1.325985916713876</v>
+        <v>1.650887646636221</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.83147908869779</v>
+        <v>1.357748646069581</v>
       </c>
       <c r="C10">
-        <v>0.3586022676448266</v>
+        <v>0.3457412348067948</v>
       </c>
       <c r="D10">
-        <v>0.07242455049659213</v>
+        <v>0.02593939541286261</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5936795056951354</v>
+        <v>0.530695703252583</v>
       </c>
       <c r="G10">
-        <v>0.4532677243766443</v>
+        <v>0.3681956545490408</v>
       </c>
       <c r="H10">
-        <v>0.2805249857519527</v>
+        <v>0.497225059631063</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6109893884652706</v>
+        <v>0.3487602012798732</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6898228197235028</v>
+        <v>1.012059826200556</v>
       </c>
       <c r="O10">
-        <v>1.500418068403093</v>
+        <v>1.669626298072956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.108692096883203</v>
+        <v>1.440326543711762</v>
       </c>
       <c r="C11">
-        <v>0.3696756690507499</v>
+        <v>0.3492688270688546</v>
       </c>
       <c r="D11">
-        <v>0.07723523116541742</v>
+        <v>0.02749476047719668</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6306707613335192</v>
+        <v>0.5369046512184781</v>
       </c>
       <c r="G11">
-        <v>0.4827781768336621</v>
+        <v>0.3729639616897771</v>
       </c>
       <c r="H11">
-        <v>0.290437762801389</v>
+        <v>0.496988203940262</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6545789970046485</v>
+        <v>0.3592735063907355</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6887310702085756</v>
+        <v>1.009856950946016</v>
       </c>
       <c r="O11">
-        <v>1.583980949907726</v>
+        <v>1.679417373457085</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.213874173992338</v>
+        <v>1.471594878423957</v>
       </c>
       <c r="C12">
-        <v>0.3738767862542716</v>
+        <v>0.3506087621790925</v>
       </c>
       <c r="D12">
-        <v>0.07905727153018915</v>
+        <v>0.02808252714331161</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6448956591231365</v>
+        <v>0.5393126226731795</v>
       </c>
       <c r="G12">
-        <v>0.4941554659349805</v>
+        <v>0.3748162031992592</v>
       </c>
       <c r="H12">
-        <v>0.2943041495871199</v>
+        <v>0.4969392016114824</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6712125527283064</v>
+        <v>0.3632807111520009</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6885059337658532</v>
+        <v>1.009085832146269</v>
       </c>
       <c r="O12">
-        <v>1.616287727317939</v>
+        <v>1.68330754385326</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.191211498568975</v>
+        <v>1.46486080556906</v>
       </c>
       <c r="C13">
-        <v>0.3729716478080149</v>
+        <v>0.3503200031021692</v>
       </c>
       <c r="D13">
-        <v>0.07866484189493406</v>
+        <v>0.02795599569116547</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6418220927602079</v>
+        <v>0.5387914967034959</v>
       </c>
       <c r="G13">
-        <v>0.4916958523856181</v>
+        <v>0.374415215355242</v>
       </c>
       <c r="H13">
-        <v>0.2934663036084402</v>
+        <v>0.4969479454635319</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6676243382701301</v>
+        <v>0.3624165306017773</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6885458669919871</v>
+        <v>1.009249103344956</v>
       </c>
       <c r="O13">
-        <v>1.609299425099067</v>
+        <v>1.68246160378547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.117341114290184</v>
+        <v>1.442899061073035</v>
       </c>
       <c r="C14">
-        <v>0.3700211388534314</v>
+        <v>0.3493789829349367</v>
       </c>
       <c r="D14">
-        <v>0.07738512272955944</v>
+        <v>0.02754314095815857</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6318365848218548</v>
+        <v>0.5371016181992161</v>
       </c>
       <c r="G14">
-        <v>0.4837100264023775</v>
+        <v>0.3731154121319662</v>
       </c>
       <c r="H14">
-        <v>0.2907535448750309</v>
+        <v>0.4969833570097535</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6559448206335645</v>
+        <v>0.3596026599380764</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6887087100693918</v>
+        <v>1.009792247281794</v>
       </c>
       <c r="O14">
-        <v>1.586625210391247</v>
+        <v>1.67973376054303</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.072121513498246</v>
+        <v>1.429446529637346</v>
       </c>
       <c r="C15">
-        <v>0.3682148962538179</v>
+        <v>0.348803111201434</v>
       </c>
       <c r="D15">
-        <v>0.07660131228814038</v>
+        <v>0.02729009614361644</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.62574904730036</v>
+        <v>0.5360739148730858</v>
       </c>
       <c r="G15">
-        <v>0.4788454042528798</v>
+        <v>0.3723253168430176</v>
       </c>
       <c r="H15">
-        <v>0.2891068311156602</v>
+        <v>0.4970103465916083</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6488077535945109</v>
+        <v>0.3578824727447483</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.688833309723762</v>
+        <v>1.010133148051736</v>
       </c>
       <c r="O15">
-        <v>1.572824758002895</v>
+        <v>1.678086655127203</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.813389583051162</v>
+        <v>1.352351785204633</v>
       </c>
       <c r="C16">
-        <v>0.3578796846576324</v>
+        <v>0.3455112835216596</v>
       </c>
       <c r="D16">
-        <v>0.07211019023294796</v>
+        <v>0.02583758021449256</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5912913324617719</v>
+        <v>0.5302978755471273</v>
       </c>
       <c r="G16">
-        <v>0.4513664083774103</v>
+        <v>0.367890545005892</v>
       </c>
       <c r="H16">
-        <v>0.2798924498636239</v>
+        <v>0.497246232694522</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6081577303590393</v>
+        <v>0.348076780061163</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6899199106724581</v>
+        <v>1.012212619728459</v>
       </c>
       <c r="O16">
-        <v>1.495046640399011</v>
+        <v>1.669011948298419</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.654996164323222</v>
+        <v>1.305054761948895</v>
       </c>
       <c r="C17">
-        <v>0.3515531732626016</v>
+        <v>0.3434993690672883</v>
       </c>
       <c r="D17">
-        <v>0.06935527670583497</v>
+        <v>0.02494437716831044</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5705181194497086</v>
+        <v>0.5268555205513152</v>
       </c>
       <c r="G17">
-        <v>0.434848829546624</v>
+        <v>0.3652527636273248</v>
       </c>
       <c r="H17">
-        <v>0.2744311058234956</v>
+        <v>0.497463415663006</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5834318115349078</v>
+        <v>0.3421077615484336</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6909100692638503</v>
+        <v>1.013600744707176</v>
       </c>
       <c r="O17">
-        <v>1.44845101934348</v>
+        <v>1.66376960472283</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.56400239649372</v>
+        <v>1.277850635866628</v>
       </c>
       <c r="C18">
-        <v>0.3479193515865546</v>
+        <v>0.3423449882146201</v>
       </c>
       <c r="D18">
-        <v>0.06777070809742725</v>
+        <v>0.02442985751956428</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5586980461119282</v>
+        <v>0.5249126861719233</v>
       </c>
       <c r="G18">
-        <v>0.4254673064463503</v>
+        <v>0.3637659616997979</v>
       </c>
       <c r="H18">
-        <v>0.2713575285833656</v>
+        <v>0.497614967905804</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5692835406323269</v>
+        <v>0.3386916328769871</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6915950515073703</v>
+        <v>1.014440512582496</v>
       </c>
       <c r="O18">
-        <v>1.42204331510996</v>
+        <v>1.660873561392862</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.533211298164076</v>
+        <v>1.268639817816222</v>
       </c>
       <c r="C19">
-        <v>0.3466898595639236</v>
+        <v>0.3419546243277125</v>
       </c>
       <c r="D19">
-        <v>0.06723418807461456</v>
+        <v>0.02425551825767513</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5547174062871321</v>
+        <v>0.5242612486997658</v>
       </c>
       <c r="G19">
-        <v>0.4223107624176947</v>
+        <v>0.3632677690469848</v>
       </c>
       <c r="H19">
-        <v>0.2703282371875417</v>
+        <v>0.4976708553846123</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.564505390160349</v>
+        <v>0.3375379280478512</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6918464880407527</v>
+        <v>1.014731949714701</v>
       </c>
       <c r="O19">
-        <v>1.413167904502586</v>
+        <v>1.659913475498882</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.67184578368699</v>
+        <v>1.310089636984571</v>
       </c>
       <c r="C20">
-        <v>0.3522261204747252</v>
+        <v>0.3437132503210165</v>
       </c>
       <c r="D20">
-        <v>0.06964854120507624</v>
+        <v>0.02503954038348155</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5727160655952588</v>
+        <v>0.5272181231449338</v>
       </c>
       <c r="G20">
-        <v>0.4365947110477606</v>
+        <v>0.3655304145650717</v>
       </c>
       <c r="H20">
-        <v>0.2750054148646086</v>
+        <v>0.4974375396141681</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5860562331052677</v>
+        <v>0.3427414051663078</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6907926383530025</v>
+        <v>1.013448697134308</v>
       </c>
       <c r="O20">
-        <v>1.453370138290467</v>
+        <v>1.664315320441972</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.139032703688997</v>
+        <v>1.449349829459095</v>
       </c>
       <c r="C21">
-        <v>0.3708875599893844</v>
+        <v>0.3496552731728713</v>
       </c>
       <c r="D21">
-        <v>0.07776099528798142</v>
+        <v>0.02766443967166055</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6347635165559922</v>
+        <v>0.5375964350332794</v>
       </c>
       <c r="G21">
-        <v>0.4860500102397083</v>
+        <v>0.3734959302236547</v>
       </c>
       <c r="H21">
-        <v>0.29154722069174</v>
+        <v>0.4969718514777668</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.659371814897213</v>
+        <v>0.3604284556369493</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6886556793370602</v>
+        <v>1.009631002091893</v>
       </c>
       <c r="O21">
-        <v>1.593266696438434</v>
+        <v>1.680530038446392</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.445594730195069</v>
+        <v>1.540351224298604</v>
       </c>
       <c r="C22">
-        <v>0.3831298099391063</v>
+        <v>0.3535626172224937</v>
       </c>
       <c r="D22">
-        <v>0.08306510543550161</v>
+        <v>0.02937285826146052</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6765905990411625</v>
+        <v>0.544710234560597</v>
       </c>
       <c r="G22">
-        <v>0.5195608335439488</v>
+        <v>0.3789734731074645</v>
       </c>
       <c r="H22">
-        <v>0.3030191127746775</v>
+        <v>0.4969046680951408</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7080357403745552</v>
+        <v>0.3721397415453396</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6883620596918547</v>
+        <v>1.007503445606659</v>
       </c>
       <c r="O22">
-        <v>1.688593132357056</v>
+        <v>1.692191215215416</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.281851776439908</v>
+        <v>1.491783856620998</v>
       </c>
       <c r="C23">
-        <v>0.3765916234597313</v>
+        <v>0.3514750670068878</v>
       </c>
       <c r="D23">
-        <v>0.08023388955798083</v>
+        <v>0.02846170397587855</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6541432128389459</v>
+        <v>0.5408831604719637</v>
       </c>
       <c r="G23">
-        <v>0.501560151532999</v>
+        <v>0.3760251000818329</v>
       </c>
       <c r="H23">
-        <v>0.296832928298997</v>
+        <v>0.4969188242672686</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6819896977140729</v>
+        <v>0.3658753415235623</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6884140828737202</v>
+        <v>1.008605368376891</v>
       </c>
       <c r="O23">
-        <v>1.637339095918804</v>
+        <v>1.685869964655438</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664227859420691</v>
+        <v>1.307813408587947</v>
       </c>
       <c r="C24">
-        <v>0.3519218705436487</v>
+        <v>0.3436165474415986</v>
       </c>
       <c r="D24">
-        <v>0.06951595863001359</v>
+        <v>0.02499652022289212</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5717219933433242</v>
+        <v>0.5270540776907993</v>
       </c>
       <c r="G24">
-        <v>0.4358050423067681</v>
+        <v>0.3654047960950351</v>
       </c>
       <c r="H24">
-        <v>0.2747455641131893</v>
+        <v>0.4974491550348574</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5848695244751951</v>
+        <v>0.3424548864797003</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6908453692149834</v>
+        <v>1.013517307888876</v>
       </c>
       <c r="O24">
-        <v>1.451145023001828</v>
+        <v>1.664068235296696</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.002098102038985</v>
+        <v>1.109372983843514</v>
       </c>
       <c r="C25">
-        <v>0.3255029771175373</v>
+        <v>0.3352483397913772</v>
       </c>
       <c r="D25">
-        <v>0.05795316756599789</v>
+        <v>0.02122932807143485</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4876475489477485</v>
+        <v>0.5135558695824187</v>
       </c>
       <c r="G25">
-        <v>0.3693594637430806</v>
+        <v>0.3551098459461315</v>
       </c>
       <c r="H25">
-        <v>0.2534772693208538</v>
+        <v>0.4990394709381007</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4828691762764379</v>
+        <v>0.3178457721581225</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6978444944380513</v>
+        <v>1.020397188559372</v>
       </c>
       <c r="O25">
-        <v>1.265122962499504</v>
+        <v>1.645107730950031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9632929301833428</v>
+        <v>2.516762830746416</v>
       </c>
       <c r="C2">
-        <v>0.3291852076740582</v>
+        <v>0.3062059756698403</v>
       </c>
       <c r="D2">
-        <v>0.01843078997180925</v>
+        <v>0.0494248708183207</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5048314631687987</v>
+        <v>0.4292235730179783</v>
       </c>
       <c r="G2">
-        <v>0.3485194568486634</v>
+        <v>0.3236438343176502</v>
       </c>
       <c r="H2">
-        <v>0.5010858148871762</v>
+        <v>0.2397258146793462</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3002857918979061</v>
+        <v>0.4096630833284109</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.026827486438648</v>
+        <v>0.7063950642803647</v>
       </c>
       <c r="O2">
-        <v>1.635046513147643</v>
+        <v>1.138920461036747</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.864329848898592</v>
+        <v>2.188617506997957</v>
       </c>
       <c r="C3">
-        <v>0.3251402203457303</v>
+        <v>0.2932214155332247</v>
       </c>
       <c r="D3">
-        <v>0.01651906018789617</v>
+        <v>0.04363007901564231</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4996735839254995</v>
+        <v>0.3914898285362298</v>
       </c>
       <c r="G3">
-        <v>0.3446663276027806</v>
+        <v>0.2943661986047701</v>
       </c>
       <c r="H3">
-        <v>0.5030186136621495</v>
+        <v>0.2314635018416453</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2887333619204639</v>
+        <v>0.3610157585364391</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.032039124809209</v>
+        <v>0.7141405588231962</v>
       </c>
       <c r="O3">
-        <v>1.630651147356332</v>
+        <v>1.059198316941547</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8035916768343441</v>
+        <v>1.987338275316915</v>
       </c>
       <c r="C4">
-        <v>0.322689165744336</v>
+        <v>0.285294087956828</v>
       </c>
       <c r="D4">
-        <v>0.01533791880488167</v>
+        <v>0.04006286192076658</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4968781587208397</v>
+        <v>0.3691436819204768</v>
       </c>
       <c r="G4">
-        <v>0.3426017108718113</v>
+        <v>0.2771389645918561</v>
       </c>
       <c r="H4">
-        <v>0.5044746769922952</v>
+        <v>0.2268709011569996</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2818117439585421</v>
+        <v>0.331555742358276</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.035661137352122</v>
+        <v>0.7198067268438635</v>
       </c>
       <c r="O4">
-        <v>1.629144940626716</v>
+        <v>1.012833268630956</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.778848423792283</v>
+        <v>1.905343222930895</v>
       </c>
       <c r="C5">
-        <v>0.3216987072246553</v>
+        <v>0.2820750012334656</v>
       </c>
       <c r="D5">
-        <v>0.01485477947802849</v>
+        <v>0.0386066611965461</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4958323704339023</v>
+        <v>0.360230969702755</v>
       </c>
       <c r="G5">
-        <v>0.3418359612611468</v>
+        <v>0.2702943810120644</v>
       </c>
       <c r="H5">
-        <v>0.505135772291311</v>
+        <v>0.2251144611230131</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2790343412250849</v>
+        <v>0.319644406587031</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.037243417704445</v>
+        <v>0.7223373741295092</v>
       </c>
       <c r="O5">
-        <v>1.628830746487651</v>
+        <v>0.9945499496083272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7747403590585975</v>
+        <v>1.891729036754811</v>
       </c>
       <c r="C6">
-        <v>0.3215347527210497</v>
+        <v>0.281541160763453</v>
       </c>
       <c r="D6">
-        <v>0.01477444581318821</v>
+        <v>0.03836470115604129</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4956643558032923</v>
+        <v>0.3587623314155621</v>
       </c>
       <c r="G6">
-        <v>0.3417133708038662</v>
+        <v>0.2691680897496482</v>
       </c>
       <c r="H6">
-        <v>0.5052496383179559</v>
+        <v>0.224829593426918</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2785757672621827</v>
+        <v>0.3176719483914923</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.037512577866629</v>
+        <v>0.7227707664552341</v>
       </c>
       <c r="O6">
-        <v>1.628796661437846</v>
+        <v>0.9915498003877588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8032579459503779</v>
+        <v>1.986232378272319</v>
       </c>
       <c r="C7">
-        <v>0.3226757739701469</v>
+        <v>0.2852506282166871</v>
       </c>
       <c r="D7">
-        <v>0.01533141032862062</v>
+        <v>0.04004323361651529</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.496863676875634</v>
+        <v>0.3690227155414192</v>
       </c>
       <c r="G7">
-        <v>0.3425910778032417</v>
+        <v>0.2770459613864347</v>
       </c>
       <c r="H7">
-        <v>0.5044833184669599</v>
+        <v>0.2268467546232955</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2817741118901722</v>
+        <v>0.3313947336460217</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.035682046004723</v>
+        <v>0.7198399679950924</v>
       </c>
       <c r="O7">
-        <v>1.629139490614364</v>
+        <v>1.012584270623051</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9291660941681243</v>
+        <v>2.403561599843329</v>
       </c>
       <c r="C8">
-        <v>0.3277838351075957</v>
+        <v>0.3017194887787866</v>
       </c>
       <c r="D8">
-        <v>0.01777316404363205</v>
+        <v>0.04742859655099352</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5029758785731318</v>
+        <v>0.4160340542034078</v>
       </c>
       <c r="G8">
-        <v>0.3471282898257471</v>
+        <v>0.3133854960423292</v>
       </c>
       <c r="H8">
-        <v>0.5016963557535519</v>
+        <v>0.2367737009998478</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2962669243228362</v>
+        <v>0.3927988061704895</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.028536954120433</v>
+        <v>0.7088722533428466</v>
       </c>
       <c r="O8">
-        <v>1.633283297572348</v>
+        <v>1.110871684849798</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.176215387474201</v>
+        <v>3.224714151424621</v>
       </c>
       <c r="C9">
-        <v>0.3380522585948285</v>
+        <v>0.3343775767115034</v>
       </c>
       <c r="D9">
-        <v>0.0225022009267164</v>
+        <v>0.06184955746969933</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5179137668709757</v>
+        <v>0.515384449261667</v>
       </c>
       <c r="G9">
-        <v>0.3584234119696958</v>
+        <v>0.3912020536838696</v>
       </c>
       <c r="H9">
-        <v>0.4983677679927609</v>
+        <v>0.260326513190293</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3260483224341328</v>
+        <v>0.5169031473852073</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.017868015395422</v>
+        <v>0.6949356063277392</v>
       </c>
       <c r="O9">
-        <v>1.650887646636221</v>
+        <v>1.325985916713961</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.357748646069581</v>
+        <v>3.831479088697847</v>
       </c>
       <c r="C10">
-        <v>0.3457412348067948</v>
+        <v>0.3586022676448408</v>
       </c>
       <c r="D10">
-        <v>0.02593939541286261</v>
+        <v>0.07242455049647134</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.530695703252583</v>
+        <v>0.5936795056951496</v>
       </c>
       <c r="G10">
-        <v>0.3681956545490408</v>
+        <v>0.4532677243766159</v>
       </c>
       <c r="H10">
-        <v>0.497225059631063</v>
+        <v>0.2805249857519527</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3487602012798732</v>
+        <v>0.6109893884653275</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.012059826200556</v>
+        <v>0.6898228197234886</v>
       </c>
       <c r="O10">
-        <v>1.669626298072956</v>
+        <v>1.500418068403093</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.440326543711762</v>
+        <v>4.10869209688326</v>
       </c>
       <c r="C11">
-        <v>0.3492688270688546</v>
+        <v>0.369675669050892</v>
       </c>
       <c r="D11">
-        <v>0.02749476047719668</v>
+        <v>0.07723523116548137</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5369046512184781</v>
+        <v>0.630670761333505</v>
       </c>
       <c r="G11">
-        <v>0.3729639616897771</v>
+        <v>0.4827781768336479</v>
       </c>
       <c r="H11">
-        <v>0.496988203940262</v>
+        <v>0.2904377628015027</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3592735063907355</v>
+        <v>0.6545789970046627</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.009856950946016</v>
+        <v>0.6887310702086324</v>
       </c>
       <c r="O11">
-        <v>1.679417373457085</v>
+        <v>1.583980949907726</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.471594878423957</v>
+        <v>4.213874173992338</v>
       </c>
       <c r="C12">
-        <v>0.3506087621790925</v>
+        <v>0.3738767862541579</v>
       </c>
       <c r="D12">
-        <v>0.02808252714331161</v>
+        <v>0.07905727153018915</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5393126226731795</v>
+        <v>0.6448956591231365</v>
       </c>
       <c r="G12">
-        <v>0.3748162031992592</v>
+        <v>0.4941554659349663</v>
       </c>
       <c r="H12">
-        <v>0.4969392016114824</v>
+        <v>0.2943041495871199</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3632807111520009</v>
+        <v>0.6712125527282353</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.009085832146269</v>
+        <v>0.6885059337658532</v>
       </c>
       <c r="O12">
-        <v>1.68330754385326</v>
+        <v>1.616287727317939</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.46486080556906</v>
+        <v>4.191211498569032</v>
       </c>
       <c r="C13">
-        <v>0.3503200031021692</v>
+        <v>0.3729716478078586</v>
       </c>
       <c r="D13">
-        <v>0.02795599569116547</v>
+        <v>0.07866484189482037</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5387914967034959</v>
+        <v>0.6418220927602079</v>
       </c>
       <c r="G13">
-        <v>0.374415215355242</v>
+        <v>0.4916958523856607</v>
       </c>
       <c r="H13">
-        <v>0.4969479454635319</v>
+        <v>0.2934663036084544</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3624165306017773</v>
+        <v>0.6676243382701301</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.009249103344956</v>
+        <v>0.6885458669919871</v>
       </c>
       <c r="O13">
-        <v>1.68246160378547</v>
+        <v>1.609299425099039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.442899061073035</v>
+        <v>4.117341114290184</v>
       </c>
       <c r="C14">
-        <v>0.3493789829349367</v>
+        <v>0.3700211388534029</v>
       </c>
       <c r="D14">
-        <v>0.02754314095815857</v>
+        <v>0.07738512272967313</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5371016181992161</v>
+        <v>0.6318365848218406</v>
       </c>
       <c r="G14">
-        <v>0.3731154121319662</v>
+        <v>0.4837100264023491</v>
       </c>
       <c r="H14">
-        <v>0.4969833570097535</v>
+        <v>0.2907535448750309</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3596026599380764</v>
+        <v>0.6559448206336072</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.009792247281794</v>
+        <v>0.6887087100693776</v>
       </c>
       <c r="O14">
-        <v>1.67973376054303</v>
+        <v>1.586625210391162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.429446529637346</v>
+        <v>4.072121513498132</v>
       </c>
       <c r="C15">
-        <v>0.348803111201434</v>
+        <v>0.3682148962538463</v>
       </c>
       <c r="D15">
-        <v>0.02729009614361644</v>
+        <v>0.07660131228807643</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5360739148730858</v>
+        <v>0.62574904730036</v>
       </c>
       <c r="G15">
-        <v>0.3723253168430176</v>
+        <v>0.4788454042529509</v>
       </c>
       <c r="H15">
-        <v>0.4970103465916083</v>
+        <v>0.2891068311156744</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3578824727447483</v>
+        <v>0.6488077535945678</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.010133148051736</v>
+        <v>0.688833309723762</v>
       </c>
       <c r="O15">
-        <v>1.678086655127203</v>
+        <v>1.572824758002923</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.352351785204633</v>
+        <v>3.813389583051048</v>
       </c>
       <c r="C16">
-        <v>0.3455112835216596</v>
+        <v>0.3578796846579451</v>
       </c>
       <c r="D16">
-        <v>0.02583758021449256</v>
+        <v>0.07211019023284138</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5302978755471273</v>
+        <v>0.5912913324617648</v>
       </c>
       <c r="G16">
-        <v>0.367890545005892</v>
+        <v>0.4513664083773534</v>
       </c>
       <c r="H16">
-        <v>0.497246232694522</v>
+        <v>0.2798924498636381</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.348076780061163</v>
+        <v>0.6081577303590251</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.012212619728459</v>
+        <v>0.6899199106724012</v>
       </c>
       <c r="O16">
-        <v>1.669011948298419</v>
+        <v>1.495046640399039</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.305054761948895</v>
+        <v>3.654996164323222</v>
       </c>
       <c r="C17">
-        <v>0.3434993690672883</v>
+        <v>0.3515531732624595</v>
       </c>
       <c r="D17">
-        <v>0.02494437716831044</v>
+        <v>0.06935527670583497</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5268555205513152</v>
+        <v>0.5705181194497015</v>
       </c>
       <c r="G17">
-        <v>0.3652527636273248</v>
+        <v>0.4348488295465813</v>
       </c>
       <c r="H17">
-        <v>0.497463415663006</v>
+        <v>0.2744311058234814</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3421077615484336</v>
+        <v>0.5834318115350072</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.013600744707176</v>
+        <v>0.6909100692637935</v>
       </c>
       <c r="O17">
-        <v>1.66376960472283</v>
+        <v>1.44845101934348</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.277850635866628</v>
+        <v>3.564002396493891</v>
       </c>
       <c r="C18">
-        <v>0.3423449882146201</v>
+        <v>0.3479193515870094</v>
       </c>
       <c r="D18">
-        <v>0.02442985751956428</v>
+        <v>0.06777070809746988</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5249126861719233</v>
+        <v>0.5586980461119282</v>
       </c>
       <c r="G18">
-        <v>0.3637659616997979</v>
+        <v>0.4254673064464214</v>
       </c>
       <c r="H18">
-        <v>0.497614967905804</v>
+        <v>0.2713575285833656</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3386916328769871</v>
+        <v>0.5692835406323553</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.014440512582496</v>
+        <v>0.6915950515074201</v>
       </c>
       <c r="O18">
-        <v>1.660873561392862</v>
+        <v>1.422043315110045</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.268639817816222</v>
+        <v>3.533211298164076</v>
       </c>
       <c r="C19">
-        <v>0.3419546243277125</v>
+        <v>0.3466898595641652</v>
       </c>
       <c r="D19">
-        <v>0.02425551825767513</v>
+        <v>0.0672341880747851</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5242612486997658</v>
+        <v>0.5547174062871463</v>
       </c>
       <c r="G19">
-        <v>0.3632677690469848</v>
+        <v>0.4223107624177374</v>
       </c>
       <c r="H19">
-        <v>0.4976708553846123</v>
+        <v>0.270328237187428</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3375379280478512</v>
+        <v>0.564505390160349</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.014731949714701</v>
+        <v>0.6918464880408166</v>
       </c>
       <c r="O19">
-        <v>1.659913475498882</v>
+        <v>1.413167904502643</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.310089636984571</v>
+        <v>3.67184578368699</v>
       </c>
       <c r="C20">
-        <v>0.3437132503210165</v>
+        <v>0.3522261204749384</v>
       </c>
       <c r="D20">
-        <v>0.02503954038348155</v>
+        <v>0.06964854120507624</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5272181231449338</v>
+        <v>0.5727160655952588</v>
       </c>
       <c r="G20">
-        <v>0.3655304145650717</v>
+        <v>0.4365947110477748</v>
       </c>
       <c r="H20">
-        <v>0.4974375396141681</v>
+        <v>0.2750054148645944</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3427414051663078</v>
+        <v>0.5860562331052392</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.013448697134308</v>
+        <v>0.6907926383530025</v>
       </c>
       <c r="O20">
-        <v>1.664315320441972</v>
+        <v>1.453370138290467</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.449349829459095</v>
+        <v>4.139032703688997</v>
       </c>
       <c r="C21">
-        <v>0.3496552731728713</v>
+        <v>0.3708875599895265</v>
       </c>
       <c r="D21">
-        <v>0.02766443967166055</v>
+        <v>0.07776099528798142</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5375964350332794</v>
+        <v>0.6347635165560064</v>
       </c>
       <c r="G21">
-        <v>0.3734959302236547</v>
+        <v>0.4860500102396372</v>
       </c>
       <c r="H21">
-        <v>0.4969718514777668</v>
+        <v>0.2915472206917258</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3604284556369493</v>
+        <v>0.6593718148972272</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.009631002091893</v>
+        <v>0.6886556793370744</v>
       </c>
       <c r="O21">
-        <v>1.680530038446392</v>
+        <v>1.593266696438434</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.540351224298604</v>
+        <v>4.445594730195012</v>
       </c>
       <c r="C22">
-        <v>0.3535626172224937</v>
+        <v>0.3831298099391063</v>
       </c>
       <c r="D22">
-        <v>0.02937285826146052</v>
+        <v>0.08306510543577161</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.544710234560597</v>
+        <v>0.6765905990411483</v>
       </c>
       <c r="G22">
-        <v>0.3789734731074645</v>
+        <v>0.5195608335439346</v>
       </c>
       <c r="H22">
-        <v>0.4969046680951408</v>
+        <v>0.3030191127746775</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3721397415453396</v>
+        <v>0.7080357403745836</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.007503445606659</v>
+        <v>0.6883620596918405</v>
       </c>
       <c r="O22">
-        <v>1.692191215215416</v>
+        <v>1.688593132357113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.491783856620998</v>
+        <v>4.281851776440021</v>
       </c>
       <c r="C23">
-        <v>0.3514750670068878</v>
+        <v>0.3765916234597313</v>
       </c>
       <c r="D23">
-        <v>0.02846170397587855</v>
+        <v>0.08023388955808741</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5408831604719637</v>
+        <v>0.6541432128389459</v>
       </c>
       <c r="G23">
-        <v>0.3760251000818329</v>
+        <v>0.5015601515329706</v>
       </c>
       <c r="H23">
-        <v>0.4969188242672686</v>
+        <v>0.296832928298997</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3658753415235623</v>
+        <v>0.6819896977141866</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.008605368376891</v>
+        <v>0.6884140828737202</v>
       </c>
       <c r="O23">
-        <v>1.685869964655438</v>
+        <v>1.637339095918776</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.307813408587947</v>
+        <v>3.664227859420521</v>
       </c>
       <c r="C24">
-        <v>0.3436165474415986</v>
+        <v>0.3519218705432934</v>
       </c>
       <c r="D24">
-        <v>0.02499652022289212</v>
+        <v>0.06951595863017701</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5270540776907993</v>
+        <v>0.57172199334331</v>
       </c>
       <c r="G24">
-        <v>0.3654047960950351</v>
+        <v>0.4358050423067255</v>
       </c>
       <c r="H24">
-        <v>0.4974491550348574</v>
+        <v>0.274745564113303</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3424548864797003</v>
+        <v>0.5848695244750388</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.013517307888876</v>
+        <v>0.6908453692149834</v>
       </c>
       <c r="O24">
-        <v>1.664068235296696</v>
+        <v>1.451145023001828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.109372983843514</v>
+        <v>3.002098102039099</v>
       </c>
       <c r="C25">
-        <v>0.3352483397913772</v>
+        <v>0.3255029771175515</v>
       </c>
       <c r="D25">
-        <v>0.02122932807143485</v>
+        <v>0.05795316756610447</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5135558695824187</v>
+        <v>0.4876475489477556</v>
       </c>
       <c r="G25">
-        <v>0.3551098459461315</v>
+        <v>0.3693594637430806</v>
       </c>
       <c r="H25">
-        <v>0.4990394709381007</v>
+        <v>0.2534772693209817</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3178457721581225</v>
+        <v>0.4828691762764805</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.020397188559372</v>
+        <v>0.6978444944380513</v>
       </c>
       <c r="O25">
-        <v>1.645107730950031</v>
+        <v>1.265122962499532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.516762830746416</v>
+        <v>0.7258140284856438</v>
       </c>
       <c r="C2">
-        <v>0.3062059756698403</v>
+        <v>0.1369414328419509</v>
       </c>
       <c r="D2">
-        <v>0.0494248708183207</v>
+        <v>0.2790916053250214</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4292235730179783</v>
+        <v>0.6414972837571398</v>
       </c>
       <c r="G2">
-        <v>0.3236438343176502</v>
+        <v>0.3134639604616254</v>
       </c>
       <c r="H2">
-        <v>0.2397258146793462</v>
+        <v>0.0014945839225039</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004956687782202707</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2943525215885003</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2698411307472988</v>
       </c>
       <c r="L2">
-        <v>0.4096630833284109</v>
+        <v>0.2384656256557776</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7964013308093456</v>
       </c>
       <c r="N2">
-        <v>0.7063950642803647</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.138920461036747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4031257385625153</v>
+      </c>
+      <c r="P2">
+        <v>0.8299181610236488</v>
+      </c>
+      <c r="Q2">
+        <v>1.228463241689369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.188617506997957</v>
+        <v>0.6326036256184295</v>
       </c>
       <c r="C3">
-        <v>0.2932214155332247</v>
+        <v>0.1227331544576202</v>
       </c>
       <c r="D3">
-        <v>0.04363007901564231</v>
+        <v>0.2501107894512273</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3914898285362298</v>
+        <v>0.6163809924051762</v>
       </c>
       <c r="G3">
-        <v>0.2943661986047701</v>
+        <v>0.3050290388584429</v>
       </c>
       <c r="H3">
-        <v>0.2314635018416453</v>
+        <v>0.002547450379769667</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006945660507495788</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2939853651689219</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2717078450195594</v>
       </c>
       <c r="L3">
-        <v>0.3610157585364391</v>
+        <v>0.2176174859562749</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6964547267791232</v>
       </c>
       <c r="N3">
-        <v>0.7141405588231962</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.059198316941547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3528911608193752</v>
+      </c>
+      <c r="P3">
+        <v>0.8531533449869162</v>
+      </c>
+      <c r="Q3">
+        <v>1.209570984217606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987338275316915</v>
+        <v>0.5750090456464534</v>
       </c>
       <c r="C4">
-        <v>0.285294087956828</v>
+        <v>0.114109548596133</v>
       </c>
       <c r="D4">
-        <v>0.04006286192076658</v>
+        <v>0.2323770226889792</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3691436819204768</v>
+        <v>0.6013318876407752</v>
       </c>
       <c r="G4">
-        <v>0.2771389645918561</v>
+        <v>0.3001222069083198</v>
       </c>
       <c r="H4">
-        <v>0.2268709011569996</v>
+        <v>0.003365372924321375</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0009406288530566798</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2939587960956231</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2730259973667923</v>
       </c>
       <c r="L4">
-        <v>0.331555742358276</v>
+        <v>0.2047647546471012</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6349525329755465</v>
       </c>
       <c r="N4">
-        <v>0.7198067268438635</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.012833268630956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3220423657767171</v>
+      </c>
+      <c r="P4">
+        <v>0.8679748142211139</v>
+      </c>
+      <c r="Q4">
+        <v>1.198958025042401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.905343222930895</v>
+        <v>0.5508775678870563</v>
       </c>
       <c r="C5">
-        <v>0.2820750012334656</v>
+        <v>0.1109216834301634</v>
       </c>
       <c r="D5">
-        <v>0.0386066611965461</v>
+        <v>0.2252549900868672</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.360230969702755</v>
+        <v>0.5949628610049089</v>
       </c>
       <c r="G5">
-        <v>0.2702943810120644</v>
+        <v>0.2979330758981718</v>
       </c>
       <c r="H5">
-        <v>0.2251144611230131</v>
+        <v>0.003741378590911282</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001140181149593023</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2938638125792608</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2733868184111348</v>
       </c>
       <c r="L5">
-        <v>0.319644406587031</v>
+        <v>0.1994950588705322</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6098806855245726</v>
       </c>
       <c r="N5">
-        <v>0.7223373741295092</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9945499496083272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3095036226646926</v>
+      </c>
+      <c r="P5">
+        <v>0.8741744249116685</v>
+      </c>
+      <c r="Q5">
+        <v>1.194053189890468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.891729036754811</v>
+        <v>0.5461673706496128</v>
       </c>
       <c r="C6">
-        <v>0.281541160763453</v>
+        <v>0.1107660146353027</v>
       </c>
       <c r="D6">
-        <v>0.03836470115604129</v>
+        <v>0.2241846089380886</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3587623314155621</v>
+        <v>0.5935114379330955</v>
       </c>
       <c r="G6">
-        <v>0.2691680897496482</v>
+        <v>0.2972613865191462</v>
       </c>
       <c r="H6">
-        <v>0.224829593426918</v>
+        <v>0.003807749478164757</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001267255364106212</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2936883119045604</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2731823513423883</v>
       </c>
       <c r="L6">
-        <v>0.3176719483914923</v>
+        <v>0.1985973514718111</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6057486955823634</v>
       </c>
       <c r="N6">
-        <v>0.7227707664552341</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9915498003877588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3074647411733338</v>
+      </c>
+      <c r="P6">
+        <v>0.8752417533076322</v>
+      </c>
+      <c r="Q6">
+        <v>1.192250564820256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.986232378272319</v>
+        <v>0.5727718543167839</v>
       </c>
       <c r="C7">
-        <v>0.2852506282166871</v>
+        <v>0.1150851308391054</v>
       </c>
       <c r="D7">
-        <v>0.04004323361651529</v>
+        <v>0.2325858334932462</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3690227155414192</v>
+        <v>0.6001560658996254</v>
       </c>
       <c r="G7">
-        <v>0.2770459613864347</v>
+        <v>0.2992404955615697</v>
       </c>
       <c r="H7">
-        <v>0.2268467546232955</v>
+        <v>0.003373968437346053</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001179956437659335</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2935139948940702</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2723027911183475</v>
       </c>
       <c r="L7">
-        <v>0.3313947336460217</v>
+        <v>0.2046345629294706</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6347060260138591</v>
       </c>
       <c r="N7">
-        <v>0.7198399679950924</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.012584270623051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3219919550973813</v>
+      </c>
+      <c r="P7">
+        <v>0.8681496656996703</v>
+      </c>
+      <c r="Q7">
+        <v>1.19615586605137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.403561599843329</v>
+        <v>0.6911951844854798</v>
       </c>
       <c r="C8">
-        <v>0.3017194887787866</v>
+        <v>0.133380843324943</v>
       </c>
       <c r="D8">
-        <v>0.04742859655099352</v>
+        <v>0.2694914407750133</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4160340542034078</v>
+        <v>0.6313193021560721</v>
       </c>
       <c r="G8">
-        <v>0.3133854960423292</v>
+        <v>0.3093730612063581</v>
       </c>
       <c r="H8">
-        <v>0.2367737009998478</v>
+        <v>0.00182441911279152</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.000823250109008633</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2936015567126802</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.269491990226232</v>
       </c>
       <c r="L8">
-        <v>0.3927988061704895</v>
+        <v>0.2312101743624737</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7620873495191915</v>
       </c>
       <c r="N8">
-        <v>0.7088722533428466</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.110871684849798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3859621553764683</v>
+      </c>
+      <c r="P8">
+        <v>0.8379813923583761</v>
+      </c>
+      <c r="Q8">
+        <v>1.218135478930904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.224714151424621</v>
+        <v>0.9240121617856687</v>
       </c>
       <c r="C9">
-        <v>0.3343775767115034</v>
+        <v>0.1683090691070817</v>
       </c>
       <c r="D9">
-        <v>0.06184955746969933</v>
+        <v>0.3418716195978533</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.515384449261667</v>
+        <v>0.6975069736698174</v>
       </c>
       <c r="G9">
-        <v>0.3912020536838696</v>
+        <v>0.333054386114803</v>
       </c>
       <c r="H9">
-        <v>0.260326513190293</v>
+        <v>0.0002177365170354939</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008061753578347819</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.296191252618442</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2666843513475996</v>
       </c>
       <c r="L9">
-        <v>0.5169031473852073</v>
+        <v>0.2830764339332319</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.010790200651286</v>
       </c>
       <c r="N9">
-        <v>0.6949356063277392</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.325985916713961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.511254202950326</v>
+      </c>
+      <c r="P9">
+        <v>0.7831203392191313</v>
+      </c>
+      <c r="Q9">
+        <v>1.274329604824018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.831479088697847</v>
+        <v>1.092018418006433</v>
       </c>
       <c r="C10">
-        <v>0.3586022676448408</v>
+        <v>0.1943676016579587</v>
       </c>
       <c r="D10">
-        <v>0.07242455049647134</v>
+        <v>0.3853698484289794</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5936795056951496</v>
+        <v>0.7375387992011611</v>
       </c>
       <c r="G10">
-        <v>0.4532677243766159</v>
+        <v>0.3477390354433183</v>
       </c>
       <c r="H10">
-        <v>0.2805249857519527</v>
+        <v>0.0001965641914121186</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001621208244426242</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2970113316995295</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2632605909932053</v>
       </c>
       <c r="L10">
-        <v>0.6109893884653275</v>
+        <v>0.3050505287302911</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.191688502495794</v>
       </c>
       <c r="N10">
-        <v>0.6898228197234886</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.500418068403093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5894450552736856</v>
+      </c>
+      <c r="P10">
+        <v>0.7471121817130992</v>
+      </c>
+      <c r="Q10">
+        <v>1.307559883950717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.10869209688326</v>
+        <v>1.161882867653787</v>
       </c>
       <c r="C11">
-        <v>0.369675669050892</v>
+        <v>0.2010200105016082</v>
       </c>
       <c r="D11">
-        <v>0.07723523116548137</v>
+        <v>0.3206765755669636</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.630670761333505</v>
+        <v>0.6679763579042088</v>
       </c>
       <c r="G11">
-        <v>0.4827781768336479</v>
+        <v>0.3203313214845522</v>
       </c>
       <c r="H11">
-        <v>0.2904377628015027</v>
+        <v>0.01875160690475397</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002399014210254791</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2803096693173757</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2444092347929789</v>
       </c>
       <c r="L11">
-        <v>0.6545789970046627</v>
+        <v>0.1969523200629553</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.260686755040695</v>
       </c>
       <c r="N11">
-        <v>0.6887310702086324</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.583980949907726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5073221360517977</v>
+      </c>
+      <c r="P11">
+        <v>0.7453749080814838</v>
+      </c>
+      <c r="Q11">
+        <v>1.214620668930479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.213874173992338</v>
+        <v>1.188631617408447</v>
       </c>
       <c r="C12">
-        <v>0.3738767862541579</v>
+        <v>0.1993850904550385</v>
       </c>
       <c r="D12">
-        <v>0.07905727153018915</v>
+        <v>0.2620737181306083</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6448956591231365</v>
+        <v>0.6049527616656363</v>
       </c>
       <c r="G12">
-        <v>0.4941554659349663</v>
+        <v>0.2958883378851667</v>
       </c>
       <c r="H12">
-        <v>0.2943041495871199</v>
+        <v>0.057430932165218</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002456230556211025</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2668074154177802</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2306795294163067</v>
       </c>
       <c r="L12">
-        <v>0.6712125527282353</v>
+        <v>0.1290591454614614</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.280335444497666</v>
       </c>
       <c r="N12">
-        <v>0.6885059337658532</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.616287727317939</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4272926965989399</v>
+      </c>
+      <c r="P12">
+        <v>0.7542888373773877</v>
+      </c>
+      <c r="Q12">
+        <v>1.134570622761572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.191211498569032</v>
+        <v>1.180479950250714</v>
       </c>
       <c r="C13">
-        <v>0.3729716478078586</v>
+        <v>0.1929176069760103</v>
       </c>
       <c r="D13">
-        <v>0.07866484189482037</v>
+        <v>0.2054984572426122</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6418220927602079</v>
+        <v>0.5416681424669676</v>
       </c>
       <c r="G13">
-        <v>0.4916958523856607</v>
+        <v>0.2709246073887996</v>
       </c>
       <c r="H13">
-        <v>0.2934663036084544</v>
+        <v>0.1132144516868294</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00229420035956629</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2542395325401117</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2188962401180916</v>
       </c>
       <c r="L13">
-        <v>0.6676243382701301</v>
+        <v>0.08787273512871074</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.263116020952083</v>
       </c>
       <c r="N13">
-        <v>0.6885458669919871</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.609299425099039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3449206258667417</v>
+      </c>
+      <c r="P13">
+        <v>0.7714605143551623</v>
+      </c>
+      <c r="Q13">
+        <v>1.055301273883998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.117341114290184</v>
+        <v>1.158368448305993</v>
       </c>
       <c r="C14">
-        <v>0.3700211388534029</v>
+        <v>0.1865493964944562</v>
       </c>
       <c r="D14">
-        <v>0.07738512272967313</v>
+        <v>0.1679712212272761</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6318365848218406</v>
+        <v>0.4976908708328907</v>
       </c>
       <c r="G14">
-        <v>0.4837100264023491</v>
+        <v>0.2532150653573737</v>
       </c>
       <c r="H14">
-        <v>0.2907535448750309</v>
+        <v>0.1626083146087893</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002168551210766978</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2458344747154797</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2114577281601662</v>
       </c>
       <c r="L14">
-        <v>0.6559448206336072</v>
+        <v>0.07485561420771858</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.234436047558972</v>
       </c>
       <c r="N14">
-        <v>0.6887087100693776</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.586625210391162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2875792287440646</v>
+      </c>
+      <c r="P14">
+        <v>0.7874999201586661</v>
+      </c>
+      <c r="Q14">
+        <v>1.00010350075884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.072121513498132</v>
+        <v>1.144716962786248</v>
       </c>
       <c r="C15">
-        <v>0.3682148962538463</v>
+        <v>0.1843897703224968</v>
       </c>
       <c r="D15">
-        <v>0.07660131228807643</v>
+        <v>0.1586868204512655</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.62574904730036</v>
+        <v>0.4863678002475567</v>
       </c>
       <c r="G15">
-        <v>0.4788454042529509</v>
+        <v>0.2484904735333799</v>
       </c>
       <c r="H15">
-        <v>0.2891068311156744</v>
+        <v>0.1751401217601796</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002204717972701609</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2438458441361604</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2098122659507755</v>
       </c>
       <c r="L15">
-        <v>0.6488077535945678</v>
+        <v>0.07373979830204336</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.219673432395894</v>
       </c>
       <c r="N15">
-        <v>0.688833309723762</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.572824758002923</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2725154719300455</v>
+      </c>
+      <c r="P15">
+        <v>0.7929105205443747</v>
+      </c>
+      <c r="Q15">
+        <v>0.9858937456185544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.813389583051048</v>
+        <v>1.072861863428528</v>
       </c>
       <c r="C16">
-        <v>0.3578796846579451</v>
+        <v>0.1751984900299419</v>
       </c>
       <c r="D16">
-        <v>0.07211019023284138</v>
+        <v>0.1530901203276187</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5912913324617648</v>
+        <v>0.4821642464553904</v>
       </c>
       <c r="G16">
-        <v>0.4513664083773534</v>
+        <v>0.246801359173368</v>
       </c>
       <c r="H16">
-        <v>0.2798924498636381</v>
+        <v>0.162514440773478</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001978456715401755</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2456933779998138</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2131196601602596</v>
       </c>
       <c r="L16">
-        <v>0.6081577303590251</v>
+        <v>0.07362120294655372</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.145527938404314</v>
       </c>
       <c r="N16">
-        <v>0.6899199106724012</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.495046640399039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2580965024310515</v>
+      </c>
+      <c r="P16">
+        <v>0.8029005650441476</v>
+      </c>
+      <c r="Q16">
+        <v>0.9860237255911528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.654996164323222</v>
+        <v>1.029507051854381</v>
       </c>
       <c r="C17">
-        <v>0.3515531732624595</v>
+        <v>0.1715796320025191</v>
       </c>
       <c r="D17">
-        <v>0.06935527670583497</v>
+        <v>0.1680003910695262</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5705181194497015</v>
+        <v>0.5019461325384</v>
       </c>
       <c r="G17">
-        <v>0.4348488295465813</v>
+        <v>0.2548529008466645</v>
       </c>
       <c r="H17">
-        <v>0.2744311058234814</v>
+        <v>0.1247912000818019</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001904469581392121</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2515819793756862</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2195879878377429</v>
       </c>
       <c r="L17">
-        <v>0.5834318115350072</v>
+        <v>0.07783150951750173</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.10398574039138</v>
       </c>
       <c r="N17">
-        <v>0.6909100692637935</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.44845101934348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2765431018299154</v>
+      </c>
+      <c r="P17">
+        <v>0.8022331614014107</v>
+      </c>
+      <c r="Q17">
+        <v>1.015330801849785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.564002396493891</v>
+        <v>1.007394542585018</v>
       </c>
       <c r="C18">
-        <v>0.3479193515870094</v>
+        <v>0.1714586594749363</v>
       </c>
       <c r="D18">
-        <v>0.06777070809746988</v>
+        <v>0.2050930534556983</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5586980461119282</v>
+        <v>0.5467951846389312</v>
       </c>
       <c r="G18">
-        <v>0.4254673064464214</v>
+        <v>0.2731016622597551</v>
       </c>
       <c r="H18">
-        <v>0.2713575285833656</v>
+        <v>0.07192427792015366</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001650782229700276</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2620088993042131</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2301956502209741</v>
       </c>
       <c r="L18">
-        <v>0.5692835406323553</v>
+        <v>0.09991199210574209</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.085523213139965</v>
       </c>
       <c r="N18">
-        <v>0.6915950515074201</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.422043315110045</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3286078031372526</v>
+      </c>
+      <c r="P18">
+        <v>0.7932141832623572</v>
+      </c>
+      <c r="Q18">
+        <v>1.075808428891563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.533211298164076</v>
+        <v>1.000202103117033</v>
       </c>
       <c r="C19">
-        <v>0.3466898595641652</v>
+        <v>0.1761453259109373</v>
       </c>
       <c r="D19">
-        <v>0.0672341880747851</v>
+        <v>0.2625840078215305</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5547174062871463</v>
+        <v>0.6095010023116956</v>
       </c>
       <c r="G19">
-        <v>0.4223107624177374</v>
+        <v>0.297555437854875</v>
       </c>
       <c r="H19">
-        <v>0.270328237187428</v>
+        <v>0.02652519403231679</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001791221050694958</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2748621538392726</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2426766220779086</v>
       </c>
       <c r="L19">
-        <v>0.564505390160349</v>
+        <v>0.1551961166596953</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.087058751359194</v>
       </c>
       <c r="N19">
-        <v>0.6918464880408166</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.413167904502643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4095571770828244</v>
+      </c>
+      <c r="P19">
+        <v>0.7810171922692746</v>
+      </c>
+      <c r="Q19">
+        <v>1.15456627565969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.67184578368699</v>
+        <v>1.041875258874995</v>
       </c>
       <c r="C20">
-        <v>0.3522261204749384</v>
+        <v>0.1907349768624726</v>
       </c>
       <c r="D20">
-        <v>0.06964854120507624</v>
+        <v>0.3744537727695842</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5727160655952588</v>
+        <v>0.7230983403824354</v>
       </c>
       <c r="G20">
-        <v>0.4365947110477748</v>
+        <v>0.3409898188233242</v>
       </c>
       <c r="H20">
-        <v>0.2750054148645944</v>
+        <v>0.0001211740618396462</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002104007320051338</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2952939813192401</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2618139039977976</v>
       </c>
       <c r="L20">
-        <v>0.5860562331052392</v>
+        <v>0.2984339898408592</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.144432766358733</v>
       </c>
       <c r="N20">
-        <v>0.6907926383530025</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.453370138290467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5686970541301903</v>
+      </c>
+      <c r="P20">
+        <v>0.7570545352307718</v>
+      </c>
+      <c r="Q20">
+        <v>1.289556321807382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.139032703688997</v>
+        <v>1.172065388964512</v>
       </c>
       <c r="C21">
-        <v>0.3708875599895265</v>
+        <v>0.2115581924894769</v>
       </c>
       <c r="D21">
-        <v>0.07776099528798142</v>
+        <v>0.4237129802674531</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6347635165560064</v>
+        <v>0.7711184851926376</v>
       </c>
       <c r="G21">
-        <v>0.4860500102396372</v>
+        <v>0.359393746236762</v>
       </c>
       <c r="H21">
-        <v>0.2915472206917258</v>
+        <v>0.0001897641034283026</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002843788404489622</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2995872265459099</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2629909113219639</v>
       </c>
       <c r="L21">
-        <v>0.6593718148972272</v>
+        <v>0.3400380221880113</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.285478199466553</v>
       </c>
       <c r="N21">
-        <v>0.6886556793370744</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.593266696438434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6505048166054621</v>
+      </c>
+      <c r="P21">
+        <v>0.7284788769652693</v>
+      </c>
+      <c r="Q21">
+        <v>1.337852153553797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.445594730195012</v>
+        <v>1.259232757286355</v>
       </c>
       <c r="C22">
-        <v>0.3831298099391063</v>
+        <v>0.2235451682178962</v>
       </c>
       <c r="D22">
-        <v>0.08306510543577161</v>
+        <v>0.4503826509996713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6765905990411483</v>
+        <v>0.7991800168456606</v>
       </c>
       <c r="G22">
-        <v>0.5195608335439346</v>
+        <v>0.370887885545315</v>
       </c>
       <c r="H22">
-        <v>0.3030191127746775</v>
+        <v>0.0005274744146777088</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.0031791925015483</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3021832271575704</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2638776570264803</v>
       </c>
       <c r="L22">
-        <v>0.7080357403745836</v>
+        <v>0.3591631453153212</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.37678067041216</v>
       </c>
       <c r="N22">
-        <v>0.6883620596918405</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.688593132357113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6967256621163429</v>
+      </c>
+      <c r="P22">
+        <v>0.7107256842899368</v>
+      </c>
+      <c r="Q22">
+        <v>1.367837629793399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.281851776440021</v>
+        <v>1.215065836730304</v>
       </c>
       <c r="C23">
-        <v>0.3765916234597313</v>
+        <v>0.2158763192634439</v>
       </c>
       <c r="D23">
-        <v>0.08023388955808741</v>
+        <v>0.4357689032266592</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6541432128389459</v>
+        <v>0.7854278613582295</v>
       </c>
       <c r="G23">
-        <v>0.5015601515329706</v>
+        <v>0.3657100217802309</v>
       </c>
       <c r="H23">
-        <v>0.296832928298997</v>
+        <v>0.0003279935496713904</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002698921401058207</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3012840478377683</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2642154937588934</v>
       </c>
       <c r="L23">
-        <v>0.6819896977141866</v>
+        <v>0.349020483076913</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.327941269398309</v>
       </c>
       <c r="N23">
-        <v>0.6884140828737202</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.637339095918776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6719075384156383</v>
+      </c>
+      <c r="P23">
+        <v>0.7198734398833295</v>
+      </c>
+      <c r="Q23">
+        <v>1.354881266049205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.664227859420521</v>
+        <v>1.043581741057295</v>
       </c>
       <c r="C24">
-        <v>0.3519218705432934</v>
+        <v>0.189119982971107</v>
       </c>
       <c r="D24">
-        <v>0.06951595863017701</v>
+        <v>0.3812351349786098</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.57172199334331</v>
+        <v>0.7323585551814915</v>
       </c>
       <c r="G24">
-        <v>0.4358050423067255</v>
+        <v>0.3452864283773636</v>
       </c>
       <c r="H24">
-        <v>0.274745564113303</v>
+        <v>6.014137776677586E-07</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001635383183590911</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2975453735792968</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2646081668365845</v>
       </c>
       <c r="L24">
-        <v>0.5848695244750388</v>
+        <v>0.3105185643993025</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.143166103696927</v>
       </c>
       <c r="N24">
-        <v>0.6908453692149834</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.451145023001828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5782975379978765</v>
+      </c>
+      <c r="P24">
+        <v>0.756183196436794</v>
+      </c>
+      <c r="Q24">
+        <v>1.303378197847152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.002098102039099</v>
+        <v>0.8578071623563517</v>
       </c>
       <c r="C25">
-        <v>0.3255029771175515</v>
+        <v>0.1606383875507333</v>
       </c>
       <c r="D25">
-        <v>0.05795316756610447</v>
+        <v>0.3227784816439794</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4876475489477556</v>
+        <v>0.6772813450929362</v>
       </c>
       <c r="G25">
-        <v>0.3693594637430806</v>
+        <v>0.3248542706845825</v>
       </c>
       <c r="H25">
-        <v>0.2534772693209817</v>
+        <v>0.000489912869020559</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00110003604274489</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2945199541346497</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2659937894967435</v>
       </c>
       <c r="L25">
-        <v>0.4828691762764805</v>
+        <v>0.2689707556452703</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9437521402876996</v>
       </c>
       <c r="N25">
-        <v>0.6978444944380513</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.265122962499532</v>
+        <v>0.4775539941499432</v>
+      </c>
+      <c r="P25">
+        <v>0.7977666148540195</v>
+      </c>
+      <c r="Q25">
+        <v>1.25329719019588</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7258140284856438</v>
+        <v>0.7040790330453319</v>
       </c>
       <c r="C2">
-        <v>0.1369414328419509</v>
+        <v>0.1433533552146713</v>
       </c>
       <c r="D2">
-        <v>0.2790916053250214</v>
+        <v>0.2845719766788051</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6414972837571398</v>
+        <v>0.6224567377557264</v>
       </c>
       <c r="G2">
-        <v>0.3134639604616254</v>
+        <v>0.2814190417908904</v>
       </c>
       <c r="H2">
-        <v>0.0014945839225039</v>
+        <v>0.001390642686526999</v>
       </c>
       <c r="I2">
-        <v>0.0004956687782202707</v>
+        <v>0.0005378719224999884</v>
       </c>
       <c r="J2">
-        <v>0.2943525215885003</v>
+        <v>0.3155541975637917</v>
       </c>
       <c r="K2">
-        <v>0.2698411307472988</v>
+        <v>0.251189455616494</v>
       </c>
       <c r="L2">
-        <v>0.2384656256557776</v>
+        <v>0.1367411111769936</v>
       </c>
       <c r="M2">
-        <v>0.7964013308093456</v>
+        <v>0.06067685151607449</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2388627110793067</v>
       </c>
       <c r="O2">
-        <v>0.4031257385625153</v>
+        <v>0.7984721331101525</v>
       </c>
       <c r="P2">
-        <v>0.8299181610236488</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.228463241689369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4053092696790657</v>
+      </c>
+      <c r="R2">
+        <v>0.8185273910263255</v>
+      </c>
+      <c r="S2">
+        <v>1.176266739341301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6326036256184295</v>
+        <v>0.61726827296701</v>
       </c>
       <c r="C3">
-        <v>0.1227331544576202</v>
+        <v>0.1254038718184347</v>
       </c>
       <c r="D3">
-        <v>0.2501107894512273</v>
+        <v>0.2548186740111049</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6163809924051762</v>
+        <v>0.5998397401394016</v>
       </c>
       <c r="G3">
-        <v>0.3050290388584429</v>
+        <v>0.2755091659469073</v>
       </c>
       <c r="H3">
-        <v>0.002547450379769667</v>
+        <v>0.002376519409122313</v>
       </c>
       <c r="I3">
-        <v>0.0006945660507495788</v>
+        <v>0.0005955217384987499</v>
       </c>
       <c r="J3">
-        <v>0.2939853651689219</v>
+        <v>0.3139168181316947</v>
       </c>
       <c r="K3">
-        <v>0.2717078450195594</v>
+        <v>0.2540475775635329</v>
       </c>
       <c r="L3">
-        <v>0.2176174859562749</v>
+        <v>0.1413060769559973</v>
       </c>
       <c r="M3">
-        <v>0.6964547267791232</v>
+        <v>0.05974002721349603</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2183917641336066</v>
       </c>
       <c r="O3">
-        <v>0.3528911608193752</v>
+        <v>0.6984152477423038</v>
       </c>
       <c r="P3">
-        <v>0.8531533449869162</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.209570984217606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3547119386743844</v>
+      </c>
+      <c r="R3">
+        <v>0.8390424350714341</v>
+      </c>
+      <c r="S3">
+        <v>1.162564315717461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5750090456464534</v>
+        <v>0.5634743494241263</v>
       </c>
       <c r="C4">
-        <v>0.114109548596133</v>
+        <v>0.1145730785970756</v>
       </c>
       <c r="D4">
-        <v>0.2323770226889792</v>
+        <v>0.2366338320937871</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6013318876407752</v>
+        <v>0.5862435777926365</v>
       </c>
       <c r="G4">
-        <v>0.3001222069083198</v>
+        <v>0.2721549536676164</v>
       </c>
       <c r="H4">
-        <v>0.003365372924321375</v>
+        <v>0.003143279986384417</v>
       </c>
       <c r="I4">
-        <v>0.0009406288530566798</v>
+        <v>0.0007384353667183596</v>
       </c>
       <c r="J4">
-        <v>0.2939587960956231</v>
+        <v>0.3129808699020629</v>
       </c>
       <c r="K4">
-        <v>0.2730259973667923</v>
+        <v>0.2559181665620471</v>
       </c>
       <c r="L4">
-        <v>0.2047647546471012</v>
+        <v>0.1442459627908264</v>
       </c>
       <c r="M4">
-        <v>0.6349525329755465</v>
+        <v>0.05961765252813667</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2057701545799091</v>
       </c>
       <c r="O4">
-        <v>0.3220423657767171</v>
+        <v>0.6368343764021489</v>
       </c>
       <c r="P4">
-        <v>0.8679748142211139</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.198958025042401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3236414723673917</v>
+      </c>
+      <c r="R4">
+        <v>0.8522133658015605</v>
+      </c>
+      <c r="S4">
+        <v>1.154910983000477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5508775678870563</v>
+        <v>0.540863409774289</v>
       </c>
       <c r="C5">
-        <v>0.1109216834301634</v>
+        <v>0.1105294818796096</v>
       </c>
       <c r="D5">
-        <v>0.2252549900868672</v>
+        <v>0.2293353398715681</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5949628610049089</v>
+        <v>0.5804480406467789</v>
       </c>
       <c r="G5">
-        <v>0.2979330758981718</v>
+        <v>0.2706061375430906</v>
       </c>
       <c r="H5">
-        <v>0.003741378590911282</v>
+        <v>0.003495957462650967</v>
       </c>
       <c r="I5">
-        <v>0.001140181149593023</v>
+        <v>0.0009043005253763781</v>
       </c>
       <c r="J5">
-        <v>0.2938638125792608</v>
+        <v>0.3124785894044706</v>
       </c>
       <c r="K5">
-        <v>0.2733868184111348</v>
+        <v>0.2564984174224456</v>
       </c>
       <c r="L5">
-        <v>0.1994950588705322</v>
+        <v>0.1453617726306184</v>
       </c>
       <c r="M5">
-        <v>0.6098806855245726</v>
+        <v>0.05963835564208431</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2005946920069732</v>
       </c>
       <c r="O5">
-        <v>0.3095036226646926</v>
+        <v>0.6117288451796554</v>
       </c>
       <c r="P5">
-        <v>0.8741744249116685</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.194053189890468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3110132271851711</v>
+      </c>
+      <c r="R5">
+        <v>0.8577594781117028</v>
+      </c>
+      <c r="S5">
+        <v>1.151166939057305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5461673706496128</v>
+        <v>0.536408339156452</v>
       </c>
       <c r="C6">
-        <v>0.1107660146353027</v>
+        <v>0.1102595990241468</v>
       </c>
       <c r="D6">
-        <v>0.2241846089380886</v>
+        <v>0.2282378422265481</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5935114379330955</v>
+        <v>0.5790925894576588</v>
       </c>
       <c r="G6">
-        <v>0.2972613865191462</v>
+        <v>0.270050000059527</v>
       </c>
       <c r="H6">
-        <v>0.003807749478164757</v>
+        <v>0.003558227107222867</v>
       </c>
       <c r="I6">
-        <v>0.001267255364106212</v>
+        <v>0.001042091181437499</v>
       </c>
       <c r="J6">
-        <v>0.2936883119045604</v>
+        <v>0.3122275847178386</v>
       </c>
       <c r="K6">
-        <v>0.2731823513423883</v>
+        <v>0.2563398191543893</v>
       </c>
       <c r="L6">
-        <v>0.1985973514718111</v>
+        <v>0.1454073077130182</v>
       </c>
       <c r="M6">
-        <v>0.6057486955823634</v>
+        <v>0.05959551031082544</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1997127241792569</v>
       </c>
       <c r="O6">
-        <v>0.3074647411733338</v>
+        <v>0.6075918830756279</v>
       </c>
       <c r="P6">
-        <v>0.8752417533076322</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.192250564820256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3089599823025893</v>
+      </c>
+      <c r="R6">
+        <v>0.8587360582988453</v>
+      </c>
+      <c r="S6">
+        <v>1.149567099053868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5727718543167839</v>
+        <v>0.5609771367815881</v>
       </c>
       <c r="C7">
-        <v>0.1150851308391054</v>
+        <v>0.1153836476469792</v>
       </c>
       <c r="D7">
-        <v>0.2325858334932462</v>
+        <v>0.2370750415898897</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6001560658996254</v>
+        <v>0.5844053919567216</v>
       </c>
       <c r="G7">
-        <v>0.2992404955615697</v>
+        <v>0.2735222916235074</v>
       </c>
       <c r="H7">
-        <v>0.003373968437346053</v>
+        <v>0.003154072300593613</v>
       </c>
       <c r="I7">
-        <v>0.001179956437659335</v>
+        <v>0.001021108639160495</v>
       </c>
       <c r="J7">
-        <v>0.2935139948940702</v>
+        <v>0.3093176709996683</v>
       </c>
       <c r="K7">
-        <v>0.2723027911183475</v>
+        <v>0.2549875340441048</v>
       </c>
       <c r="L7">
-        <v>0.2046345629294706</v>
+        <v>0.1437575247424281</v>
       </c>
       <c r="M7">
-        <v>0.6347060260138591</v>
+        <v>0.05940772233853231</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2056423950224939</v>
       </c>
       <c r="O7">
-        <v>0.3219919550973813</v>
+        <v>0.6359892763381509</v>
       </c>
       <c r="P7">
-        <v>0.8681496656996703</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.19615586605137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3235102827040706</v>
+      </c>
+      <c r="R7">
+        <v>0.8525118980397011</v>
+      </c>
+      <c r="S7">
+        <v>1.150464759013445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6911951844854798</v>
+        <v>0.6707339222905375</v>
       </c>
       <c r="C8">
-        <v>0.133380843324943</v>
+        <v>0.1378245066349706</v>
       </c>
       <c r="D8">
-        <v>0.2694914407750133</v>
+        <v>0.2754798818766204</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6313193021560721</v>
+        <v>0.6109301209373257</v>
       </c>
       <c r="G8">
-        <v>0.3093730612063581</v>
+        <v>0.2856600904112838</v>
       </c>
       <c r="H8">
-        <v>0.00182441911279152</v>
+        <v>0.001705468567294477</v>
       </c>
       <c r="I8">
-        <v>0.000823250109008633</v>
+        <v>0.0008750112709909885</v>
       </c>
       <c r="J8">
-        <v>0.2936015567126802</v>
+        <v>0.3040121900822896</v>
       </c>
       <c r="K8">
-        <v>0.269491990226232</v>
+        <v>0.2504604427666344</v>
       </c>
       <c r="L8">
-        <v>0.2312101743624737</v>
+        <v>0.1374724176371629</v>
       </c>
       <c r="M8">
-        <v>0.7620873495191915</v>
+        <v>0.05978951361735696</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2317452588413644</v>
       </c>
       <c r="O8">
-        <v>0.3859621553764683</v>
+        <v>0.7621122044787114</v>
       </c>
       <c r="P8">
-        <v>0.8379813923583761</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.218135478930904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3877504132372565</v>
+      </c>
+      <c r="R8">
+        <v>0.8260730488537789</v>
+      </c>
+      <c r="S8">
+        <v>1.162238822400496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9240121617856687</v>
+        <v>0.8865385064007683</v>
       </c>
       <c r="C9">
-        <v>0.1683090691070817</v>
+        <v>0.1822810056369093</v>
       </c>
       <c r="D9">
-        <v>0.3418716195978533</v>
+        <v>0.3501366708432272</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6975069736698174</v>
+        <v>0.6697915733233515</v>
       </c>
       <c r="G9">
-        <v>0.333054386114803</v>
+        <v>0.3051012415751373</v>
       </c>
       <c r="H9">
-        <v>0.0002177365170354939</v>
+        <v>0.0002016647493765511</v>
       </c>
       <c r="I9">
-        <v>0.0008061753578347819</v>
+        <v>0.001056622637298332</v>
       </c>
       <c r="J9">
-        <v>0.296191252618442</v>
+        <v>0.3062267688866882</v>
       </c>
       <c r="K9">
-        <v>0.2666843513475996</v>
+        <v>0.2446324732616745</v>
       </c>
       <c r="L9">
-        <v>0.2830764339332319</v>
+        <v>0.1272824814655635</v>
       </c>
       <c r="M9">
-        <v>1.010790200651286</v>
+        <v>0.06468557829288812</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2826715231616532</v>
       </c>
       <c r="O9">
-        <v>0.511254202950326</v>
+        <v>1.010409077002407</v>
       </c>
       <c r="P9">
-        <v>0.7831203392191313</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.274329604824018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5138623253439647</v>
+      </c>
+      <c r="R9">
+        <v>0.7782637362931695</v>
+      </c>
+      <c r="S9">
+        <v>1.202629354265241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.092018418006433</v>
+        <v>1.040092242199307</v>
       </c>
       <c r="C10">
-        <v>0.1943676016579587</v>
+        <v>0.2140996628361052</v>
       </c>
       <c r="D10">
-        <v>0.3853698484289794</v>
+        <v>0.3965936347600802</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7375387992011611</v>
+        <v>0.7006763599719079</v>
       </c>
       <c r="G10">
-        <v>0.3477390354433183</v>
+        <v>0.3304584274103135</v>
       </c>
       <c r="H10">
-        <v>0.0001965641914121186</v>
+        <v>0.0001957092659736759</v>
       </c>
       <c r="I10">
-        <v>0.001621208244426242</v>
+        <v>0.001933107689813696</v>
       </c>
       <c r="J10">
-        <v>0.2970113316995295</v>
+        <v>0.2895373450289327</v>
       </c>
       <c r="K10">
-        <v>0.2632605909932053</v>
+        <v>0.2377577444173262</v>
       </c>
       <c r="L10">
-        <v>0.3050505287302911</v>
+        <v>0.1193319300608096</v>
       </c>
       <c r="M10">
-        <v>1.191688502495794</v>
+        <v>0.06916476795047188</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.304016025340502</v>
       </c>
       <c r="O10">
-        <v>0.5894450552736856</v>
+        <v>1.187255788851161</v>
       </c>
       <c r="P10">
-        <v>0.7471121817130992</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.307559883950717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5920912369264144</v>
+      </c>
+      <c r="R10">
+        <v>0.7488194047742169</v>
+      </c>
+      <c r="S10">
+        <v>1.21462621880984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.161882867653787</v>
+        <v>1.104394554293663</v>
       </c>
       <c r="C11">
-        <v>0.2010200105016082</v>
+        <v>0.2181891066859691</v>
       </c>
       <c r="D11">
-        <v>0.3206765755669636</v>
+        <v>0.3333928846731311</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6679763579042088</v>
+        <v>0.6259760030419912</v>
       </c>
       <c r="G11">
-        <v>0.3203313214845522</v>
+        <v>0.3328350568933303</v>
       </c>
       <c r="H11">
-        <v>0.01875160690475397</v>
+        <v>0.0187516632217779</v>
       </c>
       <c r="I11">
-        <v>0.002399014210254791</v>
+        <v>0.002788342926883125</v>
       </c>
       <c r="J11">
-        <v>0.2803096693173757</v>
+        <v>0.2458646768221584</v>
       </c>
       <c r="K11">
-        <v>0.2444092347929789</v>
+        <v>0.218391277747557</v>
       </c>
       <c r="L11">
-        <v>0.1969523200629553</v>
+        <v>0.1104553795570737</v>
       </c>
       <c r="M11">
-        <v>1.260686755040695</v>
+        <v>0.06457838898569079</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1960006149735563</v>
       </c>
       <c r="O11">
-        <v>0.5073221360517977</v>
+        <v>1.247872900178123</v>
       </c>
       <c r="P11">
-        <v>0.7453749080814838</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.214620668930479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5087451512746526</v>
+      </c>
+      <c r="R11">
+        <v>0.7557212268333728</v>
+      </c>
+      <c r="S11">
+        <v>1.107752548229954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.188631617408447</v>
+        <v>1.130665189920336</v>
       </c>
       <c r="C12">
-        <v>0.1993850904550385</v>
+        <v>0.213858675568261</v>
       </c>
       <c r="D12">
-        <v>0.2620737181306083</v>
+        <v>0.274301282561396</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6049527616656363</v>
+        <v>0.5634143787327872</v>
       </c>
       <c r="G12">
-        <v>0.2958883378851667</v>
+        <v>0.3216975413236796</v>
       </c>
       <c r="H12">
-        <v>0.057430932165218</v>
+        <v>0.05743579262037457</v>
       </c>
       <c r="I12">
-        <v>0.002456230556211025</v>
+        <v>0.002832911173616282</v>
       </c>
       <c r="J12">
-        <v>0.2668074154177802</v>
+        <v>0.2260422133035576</v>
       </c>
       <c r="K12">
-        <v>0.2306795294163067</v>
+        <v>0.2058084482999991</v>
       </c>
       <c r="L12">
-        <v>0.1290591454614614</v>
+        <v>0.1056078581021325</v>
       </c>
       <c r="M12">
-        <v>1.280335444497666</v>
+        <v>0.06039764297605821</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1282192775912563</v>
       </c>
       <c r="O12">
-        <v>0.4272926965989399</v>
+        <v>1.263503152857083</v>
       </c>
       <c r="P12">
-        <v>0.7542888373773877</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.134570622761572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4280764969672575</v>
+      </c>
+      <c r="R12">
+        <v>0.7701508060748949</v>
+      </c>
+      <c r="S12">
+        <v>1.027227900421195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.180479950250714</v>
+        <v>1.126893777600628</v>
       </c>
       <c r="C13">
-        <v>0.1929176069760103</v>
+        <v>0.2052134606589675</v>
       </c>
       <c r="D13">
-        <v>0.2054984572426122</v>
+        <v>0.2155624937847165</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5416681424669676</v>
+        <v>0.5056880511210835</v>
       </c>
       <c r="G13">
-        <v>0.2709246073887996</v>
+        <v>0.2927130446358959</v>
       </c>
       <c r="H13">
-        <v>0.1132144516868294</v>
+        <v>0.1132236611031061</v>
       </c>
       <c r="I13">
-        <v>0.00229420035956629</v>
+        <v>0.002672159731334389</v>
       </c>
       <c r="J13">
-        <v>0.2542395325401117</v>
+        <v>0.2214942623489158</v>
       </c>
       <c r="K13">
-        <v>0.2188962401180916</v>
+        <v>0.1968310479398063</v>
       </c>
       <c r="L13">
-        <v>0.08787273512871074</v>
+        <v>0.1028642935906809</v>
       </c>
       <c r="M13">
-        <v>1.263116020952083</v>
+        <v>0.05617616696143379</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08720982242504327</v>
       </c>
       <c r="O13">
-        <v>0.3449206258667417</v>
+        <v>1.24712390652499</v>
       </c>
       <c r="P13">
-        <v>0.7714605143551623</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.055301273883998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.345561498551227</v>
+      </c>
+      <c r="R13">
+        <v>0.7892154393874122</v>
+      </c>
+      <c r="S13">
+        <v>0.960309534962505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.158368448305993</v>
+        <v>1.110017180014694</v>
       </c>
       <c r="C14">
-        <v>0.1865493964944562</v>
+        <v>0.1975444032827056</v>
       </c>
       <c r="D14">
-        <v>0.1679712212272761</v>
+        <v>0.1760258694418582</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4976908708328907</v>
+        <v>0.4673733504466</v>
       </c>
       <c r="G14">
-        <v>0.2532150653573737</v>
+        <v>0.2656568059210045</v>
       </c>
       <c r="H14">
-        <v>0.1626083146087893</v>
+        <v>0.1626171621068693</v>
       </c>
       <c r="I14">
-        <v>0.002168551210766978</v>
+        <v>0.002566389294049287</v>
       </c>
       <c r="J14">
-        <v>0.2458344747154797</v>
+        <v>0.2236942331603942</v>
       </c>
       <c r="K14">
-        <v>0.2114577281601662</v>
+        <v>0.1919354588559941</v>
       </c>
       <c r="L14">
-        <v>0.07485561420771858</v>
+        <v>0.1017035127300421</v>
       </c>
       <c r="M14">
-        <v>1.234436047558972</v>
+        <v>0.05321893070468064</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07436873356371532</v>
       </c>
       <c r="O14">
-        <v>0.2875792287440646</v>
+        <v>1.221145425856463</v>
       </c>
       <c r="P14">
-        <v>0.7874999201586661</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.00010350075884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2882809204224799</v>
+      </c>
+      <c r="R14">
+        <v>0.8045533494060564</v>
+      </c>
+      <c r="S14">
+        <v>0.9185118685073519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.144716962786248</v>
+        <v>1.098600614943308</v>
       </c>
       <c r="C15">
-        <v>0.1843897703224968</v>
+        <v>0.1951568730624444</v>
       </c>
       <c r="D15">
-        <v>0.1586868204512655</v>
+        <v>0.1660452330151969</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4863678002475567</v>
+        <v>0.4581983956561473</v>
       </c>
       <c r="G15">
-        <v>0.2484904735333799</v>
+        <v>0.2560432772974437</v>
       </c>
       <c r="H15">
-        <v>0.1751401217601796</v>
+        <v>0.1751475484422116</v>
       </c>
       <c r="I15">
-        <v>0.002204717972701609</v>
+        <v>0.002631128693728613</v>
       </c>
       <c r="J15">
-        <v>0.2438458441361604</v>
+        <v>0.2265777296123517</v>
       </c>
       <c r="K15">
-        <v>0.2098122659507755</v>
+        <v>0.1911795652568546</v>
       </c>
       <c r="L15">
-        <v>0.07373979830204336</v>
+        <v>0.1016975299598899</v>
       </c>
       <c r="M15">
-        <v>1.219673432395894</v>
+        <v>0.05241873083375381</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07332829492056669</v>
       </c>
       <c r="O15">
-        <v>0.2725154719300455</v>
+        <v>1.207940642453508</v>
       </c>
       <c r="P15">
-        <v>0.7929105205443747</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9858937456185544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.273292257318456</v>
+      </c>
+      <c r="R15">
+        <v>0.8089566210746355</v>
+      </c>
+      <c r="S15">
+        <v>0.9096357437277618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.072861863428528</v>
+        <v>1.035009836309058</v>
       </c>
       <c r="C16">
-        <v>0.1751984900299419</v>
+        <v>0.1861717079425773</v>
       </c>
       <c r="D16">
-        <v>0.1530901203276187</v>
+        <v>0.1585149049411854</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4821642464553904</v>
+        <v>0.4607370031861464</v>
       </c>
       <c r="G16">
-        <v>0.246801359173368</v>
+        <v>0.2331490786243364</v>
       </c>
       <c r="H16">
-        <v>0.162514440773478</v>
+        <v>0.1625076586825287</v>
       </c>
       <c r="I16">
-        <v>0.001978456715401755</v>
+        <v>0.002434447828636443</v>
       </c>
       <c r="J16">
-        <v>0.2456933779998138</v>
+        <v>0.2497691933747461</v>
       </c>
       <c r="K16">
-        <v>0.2131196601602596</v>
+        <v>0.1966957274003587</v>
       </c>
       <c r="L16">
-        <v>0.07362120294655372</v>
+        <v>0.1049312392126254</v>
       </c>
       <c r="M16">
-        <v>1.145527938404314</v>
+        <v>0.05219674897070981</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07349639272111963</v>
       </c>
       <c r="O16">
-        <v>0.2580965024310515</v>
+        <v>1.141165661948918</v>
       </c>
       <c r="P16">
-        <v>0.8029005650441476</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9860237255911528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2593825635923039</v>
+      </c>
+      <c r="R16">
+        <v>0.811925881496542</v>
+      </c>
+      <c r="S16">
+        <v>0.9273763025140909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.029507051854381</v>
+        <v>0.9946526011023593</v>
       </c>
       <c r="C17">
-        <v>0.1715796320025191</v>
+        <v>0.1830506389505899</v>
       </c>
       <c r="D17">
-        <v>0.1680003910695262</v>
+        <v>0.1730059281735237</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5019461325384</v>
+        <v>0.4823772680674807</v>
       </c>
       <c r="G17">
-        <v>0.2548529008466645</v>
+        <v>0.2322269013551832</v>
       </c>
       <c r="H17">
-        <v>0.1247912000818019</v>
+        <v>0.124772915886382</v>
       </c>
       <c r="I17">
-        <v>0.001904469581392121</v>
+        <v>0.002370035265877313</v>
       </c>
       <c r="J17">
-        <v>0.2515819793756862</v>
+        <v>0.2655543357099717</v>
       </c>
       <c r="K17">
-        <v>0.2195879878377429</v>
+        <v>0.2034183977298607</v>
       </c>
       <c r="L17">
-        <v>0.07783150951750173</v>
+        <v>0.1082122172466118</v>
       </c>
       <c r="M17">
-        <v>1.10398574039138</v>
+        <v>0.05342929542271158</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07779310820618512</v>
       </c>
       <c r="O17">
-        <v>0.2765431018299154</v>
+        <v>1.10279452094494</v>
       </c>
       <c r="P17">
-        <v>0.8022331614014107</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.015330801849785</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2781534757957758</v>
+      </c>
+      <c r="R17">
+        <v>0.8073778462512564</v>
+      </c>
+      <c r="S17">
+        <v>0.9618901994333413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.007394542585018</v>
+        <v>0.9721533793642436</v>
       </c>
       <c r="C18">
-        <v>0.1714586594749363</v>
+        <v>0.1841751371698024</v>
       </c>
       <c r="D18">
-        <v>0.2050930534556983</v>
+        <v>0.210545675036883</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5467951846389312</v>
+        <v>0.5262826363364965</v>
       </c>
       <c r="G18">
-        <v>0.2731016622597551</v>
+        <v>0.2455142582576997</v>
       </c>
       <c r="H18">
-        <v>0.07192427792015366</v>
+        <v>0.07190271473836418</v>
       </c>
       <c r="I18">
-        <v>0.001650782229700276</v>
+        <v>0.002069999267148681</v>
       </c>
       <c r="J18">
-        <v>0.2620088993042131</v>
+        <v>0.2799072556133027</v>
       </c>
       <c r="K18">
-        <v>0.2301956502209741</v>
+        <v>0.2129763334998138</v>
       </c>
       <c r="L18">
-        <v>0.09991199210574209</v>
+        <v>0.1123016618054269</v>
       </c>
       <c r="M18">
-        <v>1.085523213139965</v>
+        <v>0.05631345009570943</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09979923456719675</v>
       </c>
       <c r="O18">
-        <v>0.3286078031372526</v>
+        <v>1.085735670689985</v>
       </c>
       <c r="P18">
-        <v>0.7932141832623572</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.075808428891563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3305778277190612</v>
+      </c>
+      <c r="R18">
+        <v>0.7957507437472131</v>
+      </c>
+      <c r="S18">
+        <v>1.020598367536877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.000202103117033</v>
+        <v>0.9622935394930039</v>
       </c>
       <c r="C19">
-        <v>0.1761453259109373</v>
+        <v>0.1910326588108973</v>
       </c>
       <c r="D19">
-        <v>0.2625840078215305</v>
+        <v>0.2691042922523934</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6095010023116956</v>
+        <v>0.5861766185900947</v>
       </c>
       <c r="G19">
-        <v>0.297555437854875</v>
+        <v>0.2667777942548568</v>
       </c>
       <c r="H19">
-        <v>0.02652519403231679</v>
+        <v>0.02650931164479431</v>
       </c>
       <c r="I19">
-        <v>0.001791221050694958</v>
+        <v>0.002237350316441677</v>
       </c>
       <c r="J19">
-        <v>0.2748621538392726</v>
+        <v>0.2931974985304606</v>
       </c>
       <c r="K19">
-        <v>0.2426766220779086</v>
+        <v>0.2235914334273872</v>
       </c>
       <c r="L19">
-        <v>0.1551961166596953</v>
+        <v>0.1165098029998344</v>
       </c>
       <c r="M19">
-        <v>1.087058751359194</v>
+        <v>0.06009744333846534</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1548756333776211</v>
       </c>
       <c r="O19">
-        <v>0.4095571770828244</v>
+        <v>1.087754939719247</v>
       </c>
       <c r="P19">
-        <v>0.7810171922692746</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.15456627565969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4119569031845742</v>
+      </c>
+      <c r="R19">
+        <v>0.7816872572240179</v>
+      </c>
+      <c r="S19">
+        <v>1.093187007205842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.041875258874995</v>
+        <v>0.995022885084893</v>
       </c>
       <c r="C20">
-        <v>0.1907349768624726</v>
+        <v>0.2101449945900526</v>
       </c>
       <c r="D20">
-        <v>0.3744537727695842</v>
+        <v>0.3840567179092886</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7230983403824354</v>
+        <v>0.6911586692777689</v>
       </c>
       <c r="G20">
-        <v>0.3409898188233242</v>
+        <v>0.3126859274724723</v>
       </c>
       <c r="H20">
-        <v>0.0001211740618396462</v>
+        <v>0.0001208156521270709</v>
       </c>
       <c r="I20">
-        <v>0.002104007320051338</v>
+        <v>0.002571085710834531</v>
       </c>
       <c r="J20">
-        <v>0.2952939813192401</v>
+        <v>0.3028117925084146</v>
       </c>
       <c r="K20">
-        <v>0.2618139039977976</v>
+        <v>0.2382447096030909</v>
       </c>
       <c r="L20">
-        <v>0.2984339898408592</v>
+        <v>0.1208798292052631</v>
       </c>
       <c r="M20">
-        <v>1.144432766358733</v>
+        <v>0.06736757841225938</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2975522489845588</v>
       </c>
       <c r="O20">
-        <v>0.5686970541301903</v>
+        <v>1.143318841863618</v>
       </c>
       <c r="P20">
-        <v>0.7570545352307718</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.289556321807382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5716374965617561</v>
+      </c>
+      <c r="R20">
+        <v>0.7567700678840374</v>
+      </c>
+      <c r="S20">
+        <v>1.208624398834743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.172065388964512</v>
+        <v>1.107345911409453</v>
       </c>
       <c r="C21">
-        <v>0.2115581924894769</v>
+        <v>0.2312935561628819</v>
       </c>
       <c r="D21">
-        <v>0.4237129802674531</v>
+        <v>0.4406020896336429</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7711184851926376</v>
+        <v>0.7183267786707859</v>
       </c>
       <c r="G21">
-        <v>0.359393746236762</v>
+        <v>0.3854008515742464</v>
       </c>
       <c r="H21">
-        <v>0.0001897641034283026</v>
+        <v>0.0001692041096199581</v>
       </c>
       <c r="I21">
-        <v>0.002843788404489622</v>
+        <v>0.003257003215725085</v>
       </c>
       <c r="J21">
-        <v>0.2995872265459099</v>
+        <v>0.2465039714271384</v>
       </c>
       <c r="K21">
-        <v>0.2629909113219639</v>
+        <v>0.231907082177365</v>
       </c>
       <c r="L21">
-        <v>0.3400380221880113</v>
+        <v>0.1147613683771329</v>
       </c>
       <c r="M21">
-        <v>1.285478199466553</v>
+        <v>0.07077467552327832</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3387238200320155</v>
       </c>
       <c r="O21">
-        <v>0.6505048166054621</v>
+        <v>1.269334954480797</v>
       </c>
       <c r="P21">
-        <v>0.7284788769652693</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.337852153553797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6519316826408854</v>
+      </c>
+      <c r="R21">
+        <v>0.7359276966993811</v>
+      </c>
+      <c r="S21">
+        <v>1.206777923759233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.259232757286355</v>
+        <v>1.182296595446473</v>
       </c>
       <c r="C22">
-        <v>0.2235451682178962</v>
+        <v>0.2428451727134018</v>
       </c>
       <c r="D22">
-        <v>0.4503826509996713</v>
+        <v>0.4724655026898859</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7991800168456606</v>
+        <v>0.7317023584544131</v>
       </c>
       <c r="G22">
-        <v>0.370887885545315</v>
+        <v>0.4407210387731197</v>
       </c>
       <c r="H22">
-        <v>0.0005274744146777088</v>
+        <v>0.0004685886790729565</v>
       </c>
       <c r="I22">
-        <v>0.0031791925015483</v>
+        <v>0.00345561066958755</v>
       </c>
       <c r="J22">
-        <v>0.3021832271575704</v>
+        <v>0.2160546364977378</v>
       </c>
       <c r="K22">
-        <v>0.2638776570264803</v>
+        <v>0.2275486584734665</v>
       </c>
       <c r="L22">
-        <v>0.3591631453153212</v>
+        <v>0.1108989796221511</v>
       </c>
       <c r="M22">
-        <v>1.37678067041216</v>
+        <v>0.0731307597526758</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3576321148673571</v>
       </c>
       <c r="O22">
-        <v>0.6967256621163429</v>
+        <v>1.349607290802766</v>
       </c>
       <c r="P22">
-        <v>0.7107256842899368</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.367837629793399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6969542535932973</v>
+      </c>
+      <c r="R22">
+        <v>0.7238674898574473</v>
+      </c>
+      <c r="S22">
+        <v>1.201390901300854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.215065836730304</v>
+        <v>1.145429663176856</v>
       </c>
       <c r="C23">
-        <v>0.2158763192634439</v>
+        <v>0.235937451005185</v>
       </c>
       <c r="D23">
-        <v>0.4357689032266592</v>
+        <v>0.4543907220964911</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7854278613582295</v>
+        <v>0.7275578071711237</v>
       </c>
       <c r="G23">
-        <v>0.3657100217802309</v>
+        <v>0.4047815424780339</v>
       </c>
       <c r="H23">
-        <v>0.0003279935496713904</v>
+        <v>0.0002931783378243846</v>
       </c>
       <c r="I23">
-        <v>0.002698921401058207</v>
+        <v>0.002993124700821248</v>
       </c>
       <c r="J23">
-        <v>0.3012840478377683</v>
+        <v>0.2365727130038451</v>
       </c>
       <c r="K23">
-        <v>0.2642154937588934</v>
+        <v>0.231179836401104</v>
       </c>
       <c r="L23">
-        <v>0.349020483076913</v>
+        <v>0.1133621653935357</v>
       </c>
       <c r="M23">
-        <v>1.327941269398309</v>
+        <v>0.07242339086529981</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.347579800523377</v>
       </c>
       <c r="O23">
-        <v>0.6719075384156383</v>
+        <v>1.308340350780327</v>
       </c>
       <c r="P23">
-        <v>0.7198734398833295</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.354881266049205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6730069666207967</v>
+      </c>
+      <c r="R23">
+        <v>0.7293061028898364</v>
+      </c>
+      <c r="S23">
+        <v>1.211530071239508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.043581741057295</v>
+        <v>0.9965152446038985</v>
       </c>
       <c r="C24">
-        <v>0.189119982971107</v>
+        <v>0.2085431184111144</v>
       </c>
       <c r="D24">
-        <v>0.3812351349786098</v>
+        <v>0.3909195290779479</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7323585551814915</v>
+        <v>0.7001523023297054</v>
       </c>
       <c r="G24">
-        <v>0.3452864283773636</v>
+        <v>0.3162974652687325</v>
       </c>
       <c r="H24">
-        <v>6.014137776677586E-07</v>
+        <v>4.468241778798898E-07</v>
       </c>
       <c r="I24">
-        <v>0.001635383183590911</v>
+        <v>0.002003300924878992</v>
       </c>
       <c r="J24">
-        <v>0.2975453735792968</v>
+        <v>0.3054442059658911</v>
       </c>
       <c r="K24">
-        <v>0.2646081668365845</v>
+        <v>0.240746014659976</v>
       </c>
       <c r="L24">
-        <v>0.3105185643993025</v>
+        <v>0.1218649007470134</v>
       </c>
       <c r="M24">
-        <v>1.143166103696927</v>
+        <v>0.06826147230320778</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3096093349167575</v>
       </c>
       <c r="O24">
-        <v>0.5782975379978765</v>
+        <v>1.142186755870483</v>
       </c>
       <c r="P24">
-        <v>0.756183196436794</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.303378197847152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5812934624211152</v>
+      </c>
+      <c r="R24">
+        <v>0.7553852792266262</v>
+      </c>
+      <c r="S24">
+        <v>1.2218054054417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8578071623563517</v>
+        <v>0.8255360284553319</v>
       </c>
       <c r="C25">
-        <v>0.1606383875507333</v>
+        <v>0.1724824921878394</v>
       </c>
       <c r="D25">
-        <v>0.3227784816439794</v>
+        <v>0.3300838536138002</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6772813450929362</v>
+        <v>0.6526147505251316</v>
       </c>
       <c r="G25">
-        <v>0.3248542706845825</v>
+        <v>0.2948655240350604</v>
       </c>
       <c r="H25">
-        <v>0.000489912869020559</v>
+        <v>0.0004545481098634507</v>
       </c>
       <c r="I25">
-        <v>0.00110003604274489</v>
+        <v>0.00139708770264857</v>
       </c>
       <c r="J25">
-        <v>0.2945199541346497</v>
+        <v>0.3091425634082157</v>
       </c>
       <c r="K25">
-        <v>0.2659937894967435</v>
+        <v>0.2452323763893389</v>
       </c>
       <c r="L25">
-        <v>0.2689707556452703</v>
+        <v>0.1295602987575268</v>
       </c>
       <c r="M25">
-        <v>0.9437521402876996</v>
+        <v>0.06267602637293912</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2688177278061872</v>
       </c>
       <c r="O25">
-        <v>0.4775539941499432</v>
+        <v>0.9443753402562152</v>
       </c>
       <c r="P25">
-        <v>0.7977666148540195</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.25329719019588</v>
+        <v>0.4800625370552325</v>
+      </c>
+      <c r="R25">
+        <v>0.7909553964010243</v>
+      </c>
+      <c r="S25">
+        <v>1.188630211984005</v>
       </c>
     </row>
   </sheetData>
